--- a/Documentación/CRONOGRAMA DEL PROYECTO.xlsx
+++ b/Documentación/CRONOGRAMA DEL PROYECTO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arely\Documents\GitHub\Equipo-5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arely\Desktop\Cuatri 7\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="16605" windowHeight="7575"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="16605" windowHeight="7575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="168">
   <si>
     <t>Grupo:</t>
   </si>
@@ -297,27 +297,18 @@
     <t>Realizar el registro de Trello</t>
   </si>
   <si>
-    <t>Equipo 5</t>
-  </si>
-  <si>
     <t>Realizar el Story board</t>
   </si>
   <si>
     <t>jpg</t>
   </si>
   <si>
-    <t>Tomar fotos a los electrodomésticos</t>
-  </si>
-  <si>
     <t>Tomar fotos a los textiles</t>
   </si>
   <si>
     <t>Tomar fotos a los colchones</t>
   </si>
   <si>
-    <t>Tomar fotos a las recamaras</t>
-  </si>
-  <si>
     <t xml:space="preserve">Realizar la interpolación </t>
   </si>
   <si>
@@ -330,51 +321,21 @@
     <t>Elaboración de la edición de audio</t>
   </si>
   <si>
-    <t>Realizar en flash la octava escena del story board</t>
-  </si>
-  <si>
-    <t>Realizar en flash la novena escena del story board</t>
-  </si>
-  <si>
-    <t>Elaborar el video con las escenas del Story board</t>
-  </si>
-  <si>
-    <t>Añadir el audio en el video creado</t>
-  </si>
-  <si>
     <t>“Implementación de e-commerce"</t>
   </si>
   <si>
     <t>Elaborar un sitio de comercio electrónico utilizando las aplicaciones web necesarias.</t>
   </si>
   <si>
-    <t>Realizar en flash el primer esquema del story board</t>
-  </si>
-  <si>
-    <t>Realizar en flash el segundo esquema del story board</t>
-  </si>
-  <si>
-    <t>Realizar en flash el tercer esquema del story board</t>
-  </si>
-  <si>
-    <t>Realizar en flash el cuarto esquema del story board</t>
-  </si>
-  <si>
-    <t>Realizar en flash el quinto esquema del story board</t>
-  </si>
-  <si>
-    <t>Realizar en flash el sexto esquema del story board</t>
-  </si>
-  <si>
-    <t>Realizar en flash el septimo esquema del story board</t>
-  </si>
-  <si>
     <t>Elaborar los formatos de control de proyecto</t>
   </si>
   <si>
     <t>.pdf</t>
   </si>
   <si>
+    <t>Registro en línea en github y realizar carpetas (cronograma de software)</t>
+  </si>
+  <si>
     <t>Elaborar el manual de usuario del sitio</t>
   </si>
   <si>
@@ -387,9 +348,6 @@
     <t>Elaborar la arquitectura MVC del proyecto</t>
   </si>
   <si>
-    <t>Realizar el gestor de contenido para el sitio</t>
-  </si>
-  <si>
     <t>Realizar la estructura y diseño del sitio</t>
   </si>
   <si>
@@ -405,12 +363,6 @@
     <t>.mp3</t>
   </si>
   <si>
-    <t>.dia</t>
-  </si>
-  <si>
-    <t>uwe</t>
-  </si>
-  <si>
     <t>"Implementación de e-commerce"</t>
   </si>
   <si>
@@ -420,15 +372,6 @@
     <t>Nos reunimos para tomar la decisión sobre que  implementar el proyecto, en la cual decidimos de una mueblería. Los integrantes del equipo dijeron lo siguiente.: Ricardo y Lorena dijeron que sería más accesible, Julieta dijo los beneficios, Rosalía comento que sería una buena idea para poder realizar la animación y Arely comento que el proyecto se podrá implementar en un futuro.</t>
   </si>
   <si>
-    <t>MINUTA_260815.pdf</t>
-  </si>
-  <si>
-    <t>Nos reunimos para realizar el registro en línea de github de cada integrante y así mismo se le agrego una estructura, cada integrante se agregó. Lorea y Ricardo investigaron el cómo realizar el registro, Julieta y Rosalía investigaron el cómo agregar la estructura y Arely realizo la estructura  solicitada.</t>
-  </si>
-  <si>
-    <t>MINUTA_090915.pdf</t>
-  </si>
-  <si>
     <t>Nos reunimos para realizar el registro en línea de Trello y así mismo agregarnos todos por igual. Cada integrante realizo su registro.</t>
   </si>
   <si>
@@ -438,20 +381,272 @@
     <t>17 de Septiembre del 2015</t>
   </si>
   <si>
-    <t xml:space="preserve">Realizar el registro en línea en github y realizar  las carpetas. </t>
-  </si>
-  <si>
-    <t>Equipo-5</t>
+    <t>Nos reunimos para realizar el registro en línea de github de cada integrante y así mismo se le agrego una estructura, cada integrante se agregó. Lorea y Ricardo investigaron el cómo realizar el registro, Julieta y Rosalía investigaron el cómo agregar la estructura y Arely realizó la estructura  solicitada.</t>
+  </si>
+  <si>
+    <t>MINUTA_150915.pdf</t>
+  </si>
+  <si>
+    <t>MINUTA_300815.pdf</t>
+  </si>
+  <si>
+    <t>MINUTA_220915.pdf</t>
+  </si>
+  <si>
+    <t>Nos reunimos con el dueño de la mueblería "Ripe" para que nos especificara los datos que quiere que se visualicen en el sitio y así mismo le preguntamos sus distintas áreas para la elaboración del catálogo. Todos preguntaron: Lorena las distintas áreas que manejan, Ricardo si cuentan con fotografías y si podemos ir a tomarlas, Rosalía como realizan los envíos de compra, Julieta los distintos materiales que conforman cada artículo y Arely el cómo clasifican los artículos (por marca, material, precios, etc.).</t>
+  </si>
+  <si>
+    <t>Determinación de las distintas actividades que se llevaran a cabo en la realización del sitio web. Actividades a realizar: Lorena elaboración del catálogo, Ricardo Story board, Rosalía maquetación del sitio web, Julieta base de datos y Arely especifico lo que se elabora en cada actividad.</t>
+  </si>
+  <si>
+    <t>MINUTA_300915.pdf</t>
+  </si>
+  <si>
+    <t>Elaboración de bocetos de personajes, escenas 1 y 2 que también fueron hechos en el programa flash, para llevar a cabo la actividad Story board. Arely y Julieta realizaron el guión (Julieta escribió el guión en la herramienta word, realizó el boceto de la escena 1 y 2 , los pasó al programa flash, Arely le dictaba lo que se imaginaba para la historia y asignó las actividades a cada integrante del equipo). Ricardo y Lorena imaginaron a los personajes principales y lo plasmaron mediante un dibujo (Lorena dibujo a una mujer recién casada, joven, elaboró la escena 2  en boceto y Ricardo dibujo a un hombre joven). Rosalía dibujo al joven que da el servicio de paquetería.</t>
+  </si>
+  <si>
+    <t>Elaboración de bocetos de las escenas 3, 4 y 5 las cuales se hicieron también mediante la herramienta flash (Ricardo elaboró la escena 4, Rosalía la escena 3 y Julieta la escena 5). Lorena elaboró un boceto de como irían los letreros de publicidad de los artículos. También se realizaron los bocetos del story board (Ricardo elaboro la parte 1, Lorena parte 4, Julieta agregó movimientos, Rosalía parte 2 y 3). Arely Realizó reviso que todo estuviera en orden y llevo el control de que la actividad estuviera entregada en tiempo y forma.</t>
+  </si>
+  <si>
+    <t>boceto_personaje_2.jpg ; Novia.fla;boceto_escena_2.jpg;Letreros_boceto.jpg; escena2.fla; casa llena_2.fla; casa llena a dibujo.jpg; casa vaciaa dibujo.jpg; casa vacia_1.fla; escenaboceto_1.fl; escena boceto_1.jpg; Guión.docx; Boceto_Escena_4.jpg; Boceto-Novio0002.jpg; Novio.fla; IMG_201510285_100717.jpg; Personaje_3.fla</t>
+  </si>
+  <si>
+    <t>Escena_4.fla; Boceto_Escena_4.jpg; Escena boceto 3.jpg; Escena_3.fla; Historia_parte_4.jpg; Historia_3; Historia_2; Letreros_beceto.jpg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/0ByEIn7aXjVJgd1licnVRQ3FHaU0</t>
+  </si>
+  <si>
+    <t>Tomar fotos a las camas</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B45ea9ng3Vd3bGlVOVdnRkZIaUk</t>
+  </si>
+  <si>
+    <t>Realizar en flash el primer personaje del story board</t>
+  </si>
+  <si>
+    <t>Realizar en flash el segundo personaje del story board</t>
+  </si>
+  <si>
+    <t>Realizar en flash el tercer personaje del story board</t>
+  </si>
+  <si>
+    <t>Realizar en flash la primer escena del story board</t>
+  </si>
+  <si>
+    <t>Realizar en flash la segunda escena del story board</t>
+  </si>
+  <si>
+    <t>Realizar en flash la tercera escena del story board</t>
+  </si>
+  <si>
+    <t>Realizar en flash la cuarta escena del story board</t>
+  </si>
+  <si>
+    <t>Realizar en flash la quinta escena del story board</t>
+  </si>
+  <si>
+    <t>Elaborar la descripción del área de muebles</t>
+  </si>
+  <si>
+    <t>Elaborar la descripción del área de textiles</t>
+  </si>
+  <si>
+    <t>Elaborar la descripción del área de camas</t>
+  </si>
+  <si>
+    <t>Elaborar la descripción del área de cocina</t>
+  </si>
+  <si>
+    <t>Elaborar la descripción del área de electrodomésticos</t>
+  </si>
+  <si>
+    <t>Elaborar las características  del área de textiles</t>
+  </si>
+  <si>
+    <t>Elaborar las características  del área de cocina</t>
+  </si>
+  <si>
+    <t>Elaborar las características  del área de colchones</t>
+  </si>
+  <si>
+    <t>Elaborar las características  del área de muebles</t>
+  </si>
+  <si>
+    <t>Elaborar las características  del área de electrodomésticos</t>
   </si>
   <si>
     <t>.docx</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B7X_62_bgPZoc0hpRGFTWktQcnM</t>
+  </si>
+  <si>
+    <t>Realizar los bocetos del story board parte 1</t>
+  </si>
+  <si>
+    <t>Realizar los bocetos del story board parte 2</t>
+  </si>
+  <si>
+    <t>Realizar los bocetos del story board parte 3</t>
+  </si>
+  <si>
+    <t>Realizar los bocetos del story board parte 4</t>
+  </si>
+  <si>
+    <t>Tomar fotos al área de textiles</t>
+  </si>
+  <si>
+    <t>Tomar fotos al área de colchones</t>
+  </si>
+  <si>
+    <t>Tomar fotos al área de muebles</t>
+  </si>
+  <si>
+    <t>Tomar fotos al área de electrodomésticos</t>
+  </si>
+  <si>
+    <t>Realizar el modelo entidad relación</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B3SGTNyArm9VOEg1elBlVUlnVnc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0ByEIn7aXjVJgZXBpNk1jQ3VJQWc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B7X_62_bgPZoRkd2UDdQVlJGT2M</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B45ea9ng3Vd3UV9zLVJ2QjI2cVU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0ByEIn7aXjVJgMnEydFZnZkFjcWM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B45ea9ng3Vd3UlJ3cDdxM0g4bFE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B7X_62_bgPZoUC1Wbl9wN0NCYmc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B13xlUXgBhgMeVQ4VW1ZYmZtNG8</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B13xlUXgBhgMUmRaaGxBSDdJcmc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B13xlUXgBhgMbV9pYm1zMDdKSWs</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B3SGTNyArm9VbHdMc0NKNlZ4bzg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B7X_62_bgPZoX0hIUE04OUc5XzQ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B7X_62_bgPZodnNkdFhGQUFiMGc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B3SGTNyArm9VVUZsTGVFY3JsUEU</t>
+  </si>
+  <si>
+    <t>Colchones</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B7X_62_bgPZoQ3dOdnBJMGp2TU0</t>
+  </si>
+  <si>
+    <t>Tomar fotos al área de camas</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0ByEIn7aXjVJgLS0yQVRSRGp2NjA</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0ByEIn7aXjVJgS3U3Q1g3TW9Qc3M</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B3SGTNyArm9VUzBPV3F2b3hWOFk</t>
+  </si>
+  <si>
+    <t>Realizar el boceto del personaje 1</t>
+  </si>
+  <si>
+    <t>Realizar el boceto del personaje 2</t>
+  </si>
+  <si>
+    <t>Realizar el boceto del personaje 3</t>
+  </si>
+  <si>
+    <t>Realizar el boceto de las tablas</t>
+  </si>
+  <si>
+    <t>Realizar las tablas del boceto a Excel</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0ByEIn7aXjVJgcXNKR0E4UEw5UW8</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0ByEIn7aXjVJgMk5jVkxoQUUzTkU</t>
+  </si>
+  <si>
+    <t>Realizar el boceto de los letreros</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B7X_62_bgPZoOTlLVVZlSWtaTHM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0ByEIn7aXjVJgWHFjUjd5WEg3ODQ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B13xlUXgBhgMMlQwTE4tUFJ5OUU</t>
+  </si>
+  <si>
+    <t>Realizar el boceto de la estructura del sitio web</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B3SGTNyArm9VUkRhSG9BVER0c2s</t>
+  </si>
+  <si>
+    <t>https://trello.com/equipo56</t>
+  </si>
+  <si>
+    <t>https://github.com/ArelyGonzalez/Equipo-5</t>
+  </si>
+  <si>
+    <t>Elaboración del boceto de las tablas para la base de datos y el modelo entidad relación en boceto y mediante la herramienta Excel (Rosalía lo realizó mediante la herramienta Excel y el modelo entidad relación y Julieta el boceto de las tablas). Elaboración del boceto de la maquetación, pasarlo a la herramienta Moqups, los despegables que va a contener cada categoría (Entre Julieta y Rosalía elaboraron el boceto del sitio, Julieta realizó los despegables y Rosalía la maquetación en Moqups). Se elaboró parte la toma de fotografías del área de muebles, textiles y camas (Lorena tomo fotos de algunos muebles y Ricardo a las sabanas que maneja la empresa y a las camas). Realizaron la redacción de la descripción de los muebles y sabanas (Lorena y Ricardo redactaron la descripción de los muebles, Julieta y Rosalía redactaron la descripción de las sabanas). Arely asignó actividades a cada integrante, apoyo a los que necesitaron ayuda, superviso que estuviera en tiempo y forma.</t>
+  </si>
+  <si>
+    <t>Descripción_muebles.docx; Fotos-Muebles; Fotos-Textiles; menú_despegable.docx; boceto_tablas_relacion.jpe; Fotos-Camas; Modelo entidad relacion.png; Maquetacion; Database1.accdb</t>
+  </si>
+  <si>
+    <t>Personaje fonemas.fla; oswaldo fonemas.fla; Fotos-Electrodomésticos; Fotos-Vajillas; Fotos-Vaporeras; stroy board.fla; Laura fonemas.fla; plan_de_negocios.docx; resumen_ejecutivo.docx; Descripción_Electrodomésticos; Descripción_Vajillas; Fotos-Camas; Descripción_Camas.</t>
+  </si>
+  <si>
+    <t>Elaboración de los fonemas del narrador y la estructura del story board, lo llevo a cabo Arely mediante la herramienta Flash, Julieta realizó la instalación del gestor de contenido Joomla y elaboró la base de datos junto con datos mediante la herramienta WAMPSERVER, elaboró la redacción del resumen ejecutivo y el plan de negocios de la empresa, elaboró el personaje del narrador, Rosalía llevo a cabo el realizar el camión y los fonemas del servicio de correo, también los fonemas del personaje principal mediante la herramienta Flash, aplicó interpolaciones y sonidos. Ricardo y Lorena realizaron la toma de fotos de las vajillas, vaporeras, camas y electrodomésticos y su descripción de cada artículo. (Cada uno se dividió los artículos para la toma de fotografías.).</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0B7X_62_bgPZoTWVXb3dHanBDOGs</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1CMD8t-CII6cMH8ELwUImObuSMhM5ikARZcl-Z7YFKSs</t>
+  </si>
+  <si>
+    <t>Elaborar la descripción del área de vaporeras</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1pA4g49g5AhtKKnG-I-f2tFVRbYN7H1EMUi7HLZ26wvU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1-EwaTRqYKX086g38e7I5aNBK7nWsMjPMuyT0EnQqJ2U</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,6 +733,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -607,7 +816,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -826,11 +1035,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -927,6 +1146,20 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -994,22 +1227,70 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1041,23 +1322,12 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1627,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:H7"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,141 +1913,141 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="59"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="65"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
+      <c r="D7" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="56">
         <v>5</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
+      <c r="D11" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" s="26"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" s="28"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
@@ -1872,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K111"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,40 +2161,40 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="71"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="77"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
@@ -1963,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="17">
-        <v>42242</v>
+        <v>42246</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>12</v>
@@ -1972,10 +2242,10 @@
         <v>42</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>46</v>
@@ -1987,7 +2257,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="17">
-        <v>42250</v>
+        <v>42254</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>12</v>
@@ -1996,22 +2266,22 @@
         <v>42</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>48</v>
       </c>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="2:11" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <v>3</v>
       </c>
       <c r="C11" s="17">
-        <v>42256</v>
+        <v>42262</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>12</v>
@@ -2020,86 +2290,158 @@
         <v>42</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>50</v>
       </c>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="2:11" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="234" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>4</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="19"/>
+      <c r="C12" s="17">
+        <v>42269</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="2:11" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>5</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="19"/>
+      <c r="C13" s="17">
+        <v>42277</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="2:11" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="288" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>6</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="19"/>
+      <c r="C14" s="17">
+        <v>42283</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="2:11" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="219.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>7</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="21"/>
+      <c r="C15" s="17">
+        <v>42289</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="2:11" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>8</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="19"/>
+      <c r="C16" s="17">
+        <v>42296</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="2:9" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="316.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>9</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="19"/>
+      <c r="C17" s="17">
+        <v>42304</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="2:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3096,10 +3438,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W70"/>
+  <dimension ref="A1:W116"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67:D68"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3115,80 +3457,80 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="65"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="71"/>
     </row>
     <row r="3" spans="2:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="68"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="74"/>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="71"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="77"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="35" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
@@ -3207,19 +3549,19 @@
       <c r="R6" s="30"/>
       <c r="S6" s="2"/>
       <c r="T6" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -3241,43 +3583,43 @@
       <c r="J8" s="34"/>
     </row>
     <row r="9" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="80" t="s">
+      <c r="D9" s="105"/>
+      <c r="E9" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="78" t="s">
+      <c r="F9" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="87"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="109"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="81"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="101"/>
       <c r="G10" s="42">
         <v>1</v>
       </c>
@@ -3325,15 +3667,15 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="88">
+      <c r="B11" s="99">
         <v>1</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="72" t="s">
-        <v>53</v>
+      <c r="D11" s="81"/>
+      <c r="E11" s="97" t="s">
+        <v>157</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>37</v>
@@ -3355,10 +3697,10 @@
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="88"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="73"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="98"/>
       <c r="F12" s="4" t="s">
         <v>36</v>
       </c>
@@ -3379,15 +3721,15 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="88">
+      <c r="B13" s="99">
         <v>2</v>
       </c>
-      <c r="C13" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="72" t="s">
-        <v>101</v>
+      <c r="C13" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="97" t="s">
+        <v>158</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>37</v>
@@ -3409,10 +3751,10 @@
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="88"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="73"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3433,26 +3775,26 @@
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="88">
+      <c r="B15" s="99">
         <v>3</v>
       </c>
-      <c r="C15" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="72" t="s">
-        <v>55</v>
+      <c r="C15" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="81"/>
+      <c r="E15" s="97" t="s">
+        <v>92</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -3463,10 +3805,10 @@
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="88"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="73"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="4" t="s">
         <v>36</v>
       </c>
@@ -3475,8 +3817,8 @@
       <c r="I16" s="20"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="4"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -3487,15 +3829,15 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="88">
+      <c r="B17" s="99">
         <v>4</v>
       </c>
-      <c r="C17" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="90"/>
-      <c r="E17" s="72" t="s">
-        <v>86</v>
+      <c r="C17" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="87"/>
+      <c r="E17" s="91" t="s">
+        <v>72</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>37</v>
@@ -3503,12 +3845,11 @@
       <c r="G17" s="4"/>
       <c r="H17" s="20"/>
       <c r="I17" s="22"/>
-      <c r="J17" s="46"/>
       <c r="K17" s="20"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="O17" s="46"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -3517,10 +3858,10 @@
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="88"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="73"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="4" t="s">
         <v>36</v>
       </c>
@@ -3541,22 +3882,22 @@
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="88">
+      <c r="B19" s="99">
         <v>5</v>
       </c>
-      <c r="C19" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="72" t="s">
-        <v>55</v>
+      <c r="C19" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="87"/>
+      <c r="E19" s="97" t="s">
+        <v>163</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="20"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="46"/>
       <c r="K19" s="46"/>
       <c r="L19" s="4"/>
@@ -3571,10 +3912,10 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="88"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="73"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="98"/>
       <c r="F20" s="4" t="s">
         <v>36</v>
       </c>
@@ -3582,8 +3923,8 @@
       <c r="H20" s="4"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -3595,15 +3936,15 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="88">
+      <c r="B21" s="99">
         <v>6</v>
       </c>
-      <c r="C21" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="90"/>
-      <c r="E21" s="72" t="s">
+      <c r="C21" s="86" t="s">
         <v>55</v>
+      </c>
+      <c r="D21" s="87"/>
+      <c r="E21" s="84" t="s">
+        <v>114</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>37</v>
@@ -3611,10 +3952,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="20"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="4"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -3625,10 +3966,10 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="88"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="73"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="85"/>
       <c r="F22" s="4" t="s">
         <v>36</v>
       </c>
@@ -3638,7 +3979,7 @@
       <c r="J22" s="20"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="M22" s="45"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -3649,15 +3990,15 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="88">
+      <c r="B23" s="99">
         <v>7</v>
       </c>
-      <c r="C23" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="90"/>
-      <c r="E23" s="72" t="s">
-        <v>55</v>
+      <c r="C23" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="87"/>
+      <c r="E23" s="91" t="s">
+        <v>54</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>37</v>
@@ -3665,11 +4006,11 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="20"/>
-      <c r="J23" s="47"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="4"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="44"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -3679,10 +4020,10 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="88"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="73"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="92"/>
       <c r="F24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3692,7 +4033,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="M24" s="45"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -3703,15 +4044,15 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="88">
+      <c r="B25" s="99">
         <v>8</v>
       </c>
-      <c r="C25" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="90"/>
-      <c r="E25" s="72" t="s">
-        <v>55</v>
+      <c r="C25" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="87"/>
+      <c r="E25" s="97" t="s">
+        <v>94</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>37</v>
@@ -3720,10 +4061,10 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
       <c r="M25" s="44"/>
-      <c r="N25" s="20"/>
+      <c r="N25" s="44"/>
       <c r="O25" s="20"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -3733,10 +4074,10 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="88"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="73"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="98"/>
       <c r="F26" s="4" t="s">
         <v>36</v>
       </c>
@@ -3746,7 +4087,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
+      <c r="M26" s="45"/>
       <c r="N26" s="20"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -3757,15 +4098,15 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="88">
+      <c r="B27" s="99">
         <v>9</v>
       </c>
-      <c r="C27" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="90"/>
-      <c r="E27" s="72" t="s">
-        <v>87</v>
+      <c r="C27" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="87"/>
+      <c r="E27" s="97" t="s">
+        <v>156</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>37</v>
@@ -3777,7 +4118,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="44"/>
-      <c r="N27" s="20"/>
+      <c r="N27" s="44"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
@@ -3786,10 +4127,10 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="88"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="73"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="98"/>
       <c r="F28" s="4" t="s">
         <v>36</v>
       </c>
@@ -3799,7 +4140,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="20"/>
+      <c r="M28" s="45"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -3810,15 +4151,15 @@
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="88">
+      <c r="B29" s="99">
         <v>10</v>
       </c>
-      <c r="C29" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="72" t="s">
-        <v>87</v>
+      <c r="C29" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="81"/>
+      <c r="E29" s="91" t="s">
+        <v>73</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>37</v>
@@ -3839,10 +4180,10 @@
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="88"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="73"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="92"/>
       <c r="F30" s="4" t="s">
         <v>36</v>
       </c>
@@ -3853,8 +4194,8 @@
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="4"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
@@ -3863,15 +4204,15 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="88">
+      <c r="B31" s="99">
         <v>12</v>
       </c>
-      <c r="C31" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="90"/>
-      <c r="E31" s="72" t="s">
-        <v>87</v>
+      <c r="C31" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="87"/>
+      <c r="E31" s="91" t="s">
+        <v>73</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>37</v>
@@ -3893,10 +4234,10 @@
       <c r="U31" s="20"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="88"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="73"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="92"/>
       <c r="F32" s="4" t="s">
         <v>36</v>
       </c>
@@ -3907,8 +4248,8 @@
       <c r="K32" s="4"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -3917,15 +4258,15 @@
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="72">
+      <c r="B33" s="91">
         <v>13</v>
       </c>
-      <c r="C33" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="90"/>
-      <c r="E33" s="72" t="s">
-        <v>87</v>
+      <c r="C33" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="87"/>
+      <c r="E33" s="97" t="s">
+        <v>125</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>37</v>
@@ -3933,11 +4274,11 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
       <c r="O33" s="20"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
@@ -3947,10 +4288,10 @@
       <c r="U33" s="4"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="73"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="73"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="98"/>
       <c r="F34" s="4" t="s">
         <v>36</v>
       </c>
@@ -3959,7 +4300,7 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
+      <c r="L34" s="45"/>
       <c r="M34" s="20"/>
       <c r="N34" s="20"/>
       <c r="O34" s="4"/>
@@ -3971,15 +4312,15 @@
       <c r="U34" s="4"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="72">
+      <c r="B35" s="91">
         <v>14</v>
       </c>
-      <c r="C35" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="90"/>
-      <c r="E35" s="72" t="s">
-        <v>88</v>
+      <c r="C35" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="87"/>
+      <c r="E35" s="91" t="s">
+        <v>74</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>37</v>
@@ -4000,10 +4341,10 @@
       <c r="U35" s="4"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="73"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="73"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="92"/>
       <c r="F36" s="4" t="s">
         <v>36</v>
       </c>
@@ -4015,8 +4356,8 @@
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
@@ -4024,15 +4365,15 @@
       <c r="U36" s="4"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="72">
+      <c r="B37" s="91">
         <v>15</v>
       </c>
-      <c r="C37" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="72" t="s">
-        <v>87</v>
+      <c r="C37" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="81"/>
+      <c r="E37" s="97" t="s">
+        <v>126</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>37</v>
@@ -4041,23 +4382,20 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
       <c r="N37" s="4"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B38" s="73"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="73"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="98"/>
       <c r="F38" s="4" t="s">
         <v>36</v>
       </c>
@@ -4066,7 +4404,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
+      <c r="L38" s="45"/>
       <c r="M38" s="20"/>
       <c r="N38" s="4"/>
       <c r="O38" s="20"/>
@@ -4078,15 +4416,15 @@
       <c r="U38" s="4"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B39" s="72">
+      <c r="B39" s="91">
         <v>16</v>
       </c>
-      <c r="C39" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="90"/>
-      <c r="E39" s="72" t="s">
-        <v>87</v>
+      <c r="C39" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="87"/>
+      <c r="E39" s="97" t="s">
+        <v>127</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>37</v>
@@ -4098,20 +4436,20 @@
       <c r="K39" s="39"/>
       <c r="L39" s="20"/>
       <c r="M39" s="39"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
       <c r="S39" s="38"/>
       <c r="T39" s="38"/>
       <c r="U39" s="38"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="73"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="73"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="98"/>
       <c r="F40" s="4" t="s">
         <v>36</v>
       </c>
@@ -4120,7 +4458,7 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
+      <c r="L40" s="45"/>
       <c r="M40" s="20"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
@@ -4132,15 +4470,15 @@
       <c r="U40" s="4"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B41" s="72">
+      <c r="B41" s="91">
         <v>17</v>
       </c>
-      <c r="C41" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="90"/>
-      <c r="E41" s="72" t="s">
-        <v>87</v>
+      <c r="C41" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="87"/>
+      <c r="E41" s="97" t="s">
+        <v>128</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>37</v>
@@ -4162,10 +4500,10 @@
       <c r="U41" s="4"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B42" s="73"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="73"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="98"/>
       <c r="F42" s="4" t="s">
         <v>36</v>
       </c>
@@ -4174,7 +4512,7 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
+      <c r="L42" s="45"/>
       <c r="M42" s="20"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -4186,15 +4524,15 @@
       <c r="U42" s="4"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B43" s="72">
+      <c r="B43" s="91">
         <v>18</v>
       </c>
-      <c r="C43" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="75"/>
-      <c r="E43" s="72" t="s">
-        <v>87</v>
+      <c r="C43" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="81"/>
+      <c r="E43" s="97" t="s">
+        <v>131</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>37</v>
@@ -4216,10 +4554,10 @@
       <c r="U43" s="4"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B44" s="73"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="73"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="98"/>
       <c r="F44" s="4" t="s">
         <v>36</v>
       </c>
@@ -4228,7 +4566,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
+      <c r="L44" s="45"/>
       <c r="M44" s="20"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
@@ -4240,15 +4578,15 @@
       <c r="U44" s="4"/>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B45" s="72">
+      <c r="B45" s="91">
         <v>19</v>
       </c>
-      <c r="C45" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="90"/>
-      <c r="E45" s="72" t="s">
-        <v>87</v>
+      <c r="C45" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="87"/>
+      <c r="E45" s="97" t="s">
+        <v>130</v>
       </c>
       <c r="F45" s="38" t="s">
         <v>37</v>
@@ -4270,10 +4608,10 @@
       <c r="U45" s="38"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B46" s="73"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="73"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="98"/>
       <c r="F46" s="4" t="s">
         <v>36</v>
       </c>
@@ -4282,7 +4620,7 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
+      <c r="L46" s="45"/>
       <c r="M46" s="20"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -4294,15 +4632,15 @@
       <c r="U46" s="4"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B47" s="72">
+      <c r="B47" s="91">
         <v>20</v>
       </c>
-      <c r="C47" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47" s="75"/>
-      <c r="E47" s="72" t="s">
-        <v>87</v>
+      <c r="C47" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="81"/>
+      <c r="E47" s="97" t="s">
+        <v>132</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>37</v>
@@ -4324,10 +4662,10 @@
       <c r="U47" s="4"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B48" s="73"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="73"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="98"/>
       <c r="F48" s="4" t="s">
         <v>36</v>
       </c>
@@ -4336,7 +4674,7 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
+      <c r="L48" s="45"/>
       <c r="M48" s="20"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -4348,15 +4686,15 @@
       <c r="U48" s="4"/>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B49" s="72">
+      <c r="B49" s="91">
         <v>21</v>
       </c>
-      <c r="C49" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="75"/>
-      <c r="E49" s="72" t="s">
-        <v>87</v>
+      <c r="C49" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="81"/>
+      <c r="E49" s="97" t="s">
+        <v>129</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>37</v>
@@ -4378,10 +4716,10 @@
       <c r="U49" s="4"/>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B50" s="73"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="73"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="98"/>
       <c r="F50" s="4" t="s">
         <v>36</v>
       </c>
@@ -4390,7 +4728,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
+      <c r="L50" s="45"/>
       <c r="M50" s="20"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
@@ -4402,15 +4740,15 @@
       <c r="U50" s="4"/>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B51" s="72">
+      <c r="B51" s="91">
         <v>22</v>
       </c>
-      <c r="C51" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="75"/>
-      <c r="E51" s="72" t="s">
-        <v>87</v>
+      <c r="C51" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="81"/>
+      <c r="E51" s="97" t="s">
+        <v>133</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>37</v>
@@ -4432,10 +4770,10 @@
       <c r="U51" s="4"/>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B52" s="73"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="73"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="98"/>
       <c r="F52" s="4" t="s">
         <v>36</v>
       </c>
@@ -4444,7 +4782,7 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
+      <c r="L52" s="45"/>
       <c r="M52" s="20"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -4456,15 +4794,15 @@
       <c r="U52" s="4"/>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B53" s="72">
+      <c r="B53" s="91">
         <v>23</v>
       </c>
-      <c r="C53" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="D53" s="75"/>
-      <c r="E53" s="72" t="s">
-        <v>87</v>
+      <c r="C53" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="81"/>
+      <c r="E53" s="97" t="s">
+        <v>135</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>37</v>
@@ -4486,10 +4824,10 @@
       <c r="U53" s="4"/>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B54" s="73"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="73"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="98"/>
       <c r="F54" s="4" t="s">
         <v>36</v>
       </c>
@@ -4500,7 +4838,7 @@
       <c r="K54" s="20"/>
       <c r="L54" s="20"/>
       <c r="M54" s="20"/>
-      <c r="N54" s="4"/>
+      <c r="N54" s="45"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
@@ -4509,16 +4847,16 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B55" s="72">
+    <row r="55" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="91">
         <v>24</v>
       </c>
-      <c r="C55" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="D55" s="75"/>
-      <c r="E55" s="72" t="s">
-        <v>87</v>
+      <c r="C55" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="81"/>
+      <c r="E55" s="97" t="s">
+        <v>166</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>37</v>
@@ -4540,10 +4878,10 @@
       <c r="U55" s="4"/>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B56" s="73"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="73"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="98"/>
       <c r="F56" s="4" t="s">
         <v>36</v>
       </c>
@@ -4554,7 +4892,7 @@
       <c r="K56" s="20"/>
       <c r="L56" s="20"/>
       <c r="M56" s="20"/>
-      <c r="N56" s="4"/>
+      <c r="N56" s="45"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
@@ -4564,15 +4902,15 @@
       <c r="U56" s="4"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B57" s="72">
+      <c r="B57" s="91">
         <v>25</v>
       </c>
-      <c r="C57" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="75"/>
-      <c r="E57" s="72" t="s">
-        <v>102</v>
+      <c r="C57" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="81"/>
+      <c r="E57" s="91" t="s">
+        <v>64</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>37</v>
@@ -4594,10 +4932,10 @@
       <c r="U57" s="44"/>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B58" s="73"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="73"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="92"/>
       <c r="F58" s="4" t="s">
         <v>36</v>
       </c>
@@ -4618,15 +4956,15 @@
       <c r="U58" s="4"/>
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B59" s="72">
+      <c r="B59" s="91">
         <v>26</v>
       </c>
-      <c r="C59" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="75"/>
-      <c r="E59" s="72" t="s">
-        <v>78</v>
+      <c r="C59" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="81"/>
+      <c r="E59" s="91" t="s">
+        <v>64</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>37</v>
@@ -4634,10 +4972,10 @@
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="44"/>
-      <c r="L59" s="44"/>
-      <c r="M59" s="44"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
       <c r="N59" s="44"/>
       <c r="O59" s="44"/>
       <c r="P59" s="44"/>
@@ -4648,10 +4986,10 @@
       <c r="U59" s="44"/>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B60" s="73"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="73"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="92"/>
       <c r="F60" s="4" t="s">
         <v>36</v>
       </c>
@@ -4672,15 +5010,15 @@
       <c r="U60" s="4"/>
     </row>
     <row r="61" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="72">
+      <c r="B61" s="91">
         <v>27</v>
       </c>
-      <c r="C61" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="D61" s="75"/>
-      <c r="E61" s="72" t="s">
-        <v>78</v>
+      <c r="C61" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="81"/>
+      <c r="E61" s="91" t="s">
+        <v>64</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>37</v>
@@ -4688,10 +5026,10 @@
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="44"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
       <c r="N61" s="44"/>
       <c r="O61" s="44"/>
       <c r="P61" s="44"/>
@@ -4702,10 +5040,10 @@
       <c r="U61" s="44"/>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B62" s="73"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="73"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="92"/>
       <c r="F62" s="4" t="s">
         <v>36</v>
       </c>
@@ -4726,40 +5064,40 @@
       <c r="U62" s="4"/>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B63" s="72">
+      <c r="B63" s="91">
         <v>28</v>
       </c>
-      <c r="C63" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" s="75"/>
-      <c r="E63" s="72" t="s">
-        <v>89</v>
+      <c r="C63" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="81"/>
+      <c r="E63" s="110" t="s">
+        <v>113</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="44"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
       <c r="M63" s="44"/>
       <c r="N63" s="44"/>
       <c r="O63" s="44"/>
       <c r="P63" s="44"/>
-      <c r="Q63" s="44"/>
-      <c r="R63" s="44"/>
-      <c r="S63" s="44"/>
-      <c r="T63" s="44"/>
-      <c r="U63" s="44"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="4"/>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B64" s="73"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="73"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="92"/>
       <c r="F64" s="4" t="s">
         <v>36</v>
       </c>
@@ -4769,7 +5107,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="20"/>
       <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
+      <c r="M64" s="45"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
@@ -4779,16 +5117,16 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="72">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B65" s="91">
         <v>29</v>
       </c>
-      <c r="C65" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" s="75"/>
-      <c r="E65" s="72" t="s">
-        <v>90</v>
+      <c r="C65" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="81"/>
+      <c r="E65" s="97" t="s">
+        <v>124</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>37</v>
@@ -4796,10 +5134,10 @@
       <c r="G65" s="20"/>
       <c r="H65" s="20"/>
       <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
+      <c r="J65" s="44"/>
       <c r="K65" s="44"/>
       <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
+      <c r="M65" s="20"/>
       <c r="N65" s="20"/>
       <c r="O65" s="20"/>
       <c r="P65" s="20"/>
@@ -4809,11 +5147,11 @@
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B66" s="73"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="73"/>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B66" s="92"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="98"/>
       <c r="F66" s="4" t="s">
         <v>36</v>
       </c>
@@ -4822,7 +5160,7 @@
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
+      <c r="L66" s="45"/>
       <c r="M66" s="20"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -4833,16 +5171,16 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="72">
+    <row r="67" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="91">
         <v>30</v>
       </c>
-      <c r="C67" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="75"/>
-      <c r="E67" s="72" t="s">
-        <v>86</v>
+      <c r="C67" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="81"/>
+      <c r="E67" s="97" t="s">
+        <v>137</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>37</v>
@@ -4851,23 +5189,23 @@
       <c r="H67" s="20"/>
       <c r="I67" s="20"/>
       <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
       <c r="M67" s="44"/>
-      <c r="N67" s="44"/>
-      <c r="O67" s="44"/>
-      <c r="P67" s="44"/>
-      <c r="Q67" s="44"/>
-      <c r="R67" s="44"/>
-      <c r="S67" s="44"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
       <c r="T67" s="20"/>
       <c r="U67" s="20"/>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B68" s="73"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="73"/>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B68" s="92"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="98"/>
       <c r="F68" s="4" t="s">
         <v>36</v>
       </c>
@@ -4877,8 +5215,8 @@
       <c r="J68" s="4"/>
       <c r="K68" s="20"/>
       <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="4"/>
+      <c r="M68" s="45"/>
+      <c r="N68" s="45"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
@@ -4887,101 +5225,1338 @@
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
     </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B69" s="72">
+    <row r="69" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="50"/>
+      <c r="B69" s="78">
         <v>31</v>
       </c>
-      <c r="C69" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" s="75"/>
-      <c r="E69" s="72" t="s">
-        <v>86</v>
+      <c r="C69" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69" s="94"/>
+      <c r="E69" s="91" t="s">
+        <v>113</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="51"/>
       <c r="L69" s="44"/>
       <c r="M69" s="44"/>
       <c r="N69" s="44"/>
-      <c r="O69" s="44"/>
-      <c r="P69" s="44"/>
-      <c r="Q69" s="44"/>
-      <c r="R69" s="44"/>
-      <c r="S69" s="44"/>
-      <c r="T69" s="44"/>
-      <c r="U69" s="44"/>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B70" s="73"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="73"/>
+      <c r="O69" s="51"/>
+      <c r="P69" s="51"/>
+      <c r="Q69" s="51"/>
+      <c r="R69" s="51"/>
+      <c r="S69" s="51"/>
+      <c r="T69" s="51"/>
+      <c r="U69" s="51"/>
+    </row>
+    <row r="70" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="50"/>
+      <c r="B70" s="79"/>
+      <c r="C70" s="95"/>
+      <c r="D70" s="96"/>
+      <c r="E70" s="92"/>
       <c r="F70" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
+      <c r="H70" s="51"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="51"/>
+      <c r="M70" s="51"/>
+      <c r="N70" s="51"/>
+      <c r="O70" s="51"/>
+      <c r="P70" s="51"/>
+      <c r="Q70" s="51"/>
+      <c r="R70" s="51"/>
+      <c r="S70" s="51"/>
+      <c r="T70" s="51"/>
+      <c r="U70" s="51"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B71" s="91">
+        <v>32</v>
+      </c>
+      <c r="C71" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" s="81"/>
+      <c r="E71" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="4"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B72" s="92"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B73" s="78">
+        <v>33</v>
+      </c>
+      <c r="C73" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" s="81"/>
+      <c r="E73" s="97" t="s">
+        <v>164</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="44"/>
+      <c r="O73" s="44"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
+      <c r="U73" s="4"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B74" s="79"/>
+      <c r="C74" s="82"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="98"/>
+      <c r="F74" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B75" s="78">
+        <v>34</v>
+      </c>
+      <c r="C75" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="81"/>
+      <c r="E75" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="44"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="44"/>
+      <c r="R75" s="20"/>
+      <c r="S75" s="20"/>
+      <c r="T75" s="20"/>
+      <c r="U75" s="20"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B76" s="79"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B77" s="78">
+        <v>35</v>
+      </c>
+      <c r="C77" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" s="81"/>
+      <c r="E77" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="20"/>
+      <c r="R77" s="20"/>
+      <c r="S77" s="20"/>
+      <c r="T77" s="20"/>
+      <c r="U77" s="4"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B78" s="79"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="83"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B79" s="78">
+        <v>36</v>
+      </c>
+      <c r="C79" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" s="81"/>
+      <c r="E79" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="44"/>
+      <c r="S79" s="44"/>
+      <c r="T79" s="20"/>
+      <c r="U79" s="4"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B80" s="79"/>
+      <c r="C80" s="82"/>
+      <c r="D80" s="83"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+    </row>
+    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B81" s="91">
+        <v>37</v>
+      </c>
+      <c r="C81" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="D81" s="81"/>
+      <c r="E81" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="44"/>
+      <c r="S81" s="44"/>
+      <c r="T81" s="44"/>
+      <c r="U81" s="4"/>
+    </row>
+    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B82" s="92"/>
+      <c r="C82" s="82"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="98"/>
+      <c r="F82" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="45"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+    </row>
+    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B83" s="78">
+        <v>38</v>
+      </c>
+      <c r="C83" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="D83" s="81"/>
+      <c r="E83" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="44"/>
+      <c r="R83" s="44"/>
+      <c r="S83" s="44"/>
+      <c r="T83" s="20"/>
+      <c r="U83" s="4"/>
+    </row>
+    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B84" s="79"/>
+      <c r="C84" s="82"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="92"/>
+      <c r="F84" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+    </row>
+    <row r="85" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="78">
+        <v>39</v>
+      </c>
+      <c r="C85" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" s="81"/>
+      <c r="E85" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="44"/>
+      <c r="M85" s="44"/>
+      <c r="N85" s="44"/>
+      <c r="O85" s="20"/>
+      <c r="P85" s="20"/>
+      <c r="Q85" s="20"/>
+      <c r="R85" s="20"/>
+      <c r="S85" s="20"/>
+      <c r="T85" s="20"/>
+      <c r="U85" s="20"/>
+    </row>
+    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B86" s="79"/>
+      <c r="C86" s="82"/>
+      <c r="D86" s="83"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="45"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="20"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="20"/>
+      <c r="Q86" s="20"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="20"/>
+      <c r="T86" s="20"/>
+      <c r="U86" s="20"/>
+    </row>
+    <row r="87" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="78">
+        <v>40</v>
+      </c>
+      <c r="C87" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87" s="81"/>
+      <c r="E87" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="44"/>
+      <c r="O87" s="20"/>
+      <c r="P87" s="20"/>
+      <c r="Q87" s="20"/>
+      <c r="R87" s="20"/>
+      <c r="S87" s="20"/>
+      <c r="T87" s="20"/>
+      <c r="U87" s="20"/>
+    </row>
+    <row r="88" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="79"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="45"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="20"/>
+      <c r="P88" s="20"/>
+      <c r="Q88" s="20"/>
+      <c r="R88" s="20"/>
+      <c r="S88" s="20"/>
+      <c r="T88" s="20"/>
+      <c r="U88" s="20"/>
+    </row>
+    <row r="89" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="78">
+        <v>41</v>
+      </c>
+      <c r="C89" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89" s="81"/>
+      <c r="E89" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="44"/>
+      <c r="M89" s="44"/>
+      <c r="N89" s="44"/>
+      <c r="O89" s="20"/>
+      <c r="P89" s="20"/>
+      <c r="Q89" s="20"/>
+      <c r="R89" s="20"/>
+      <c r="S89" s="20"/>
+      <c r="T89" s="20"/>
+      <c r="U89" s="20"/>
+    </row>
+    <row r="90" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="79"/>
+      <c r="C90" s="82"/>
+      <c r="D90" s="83"/>
+      <c r="E90" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="45"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="20"/>
+      <c r="O90" s="20"/>
+      <c r="P90" s="20"/>
+      <c r="Q90" s="20"/>
+      <c r="R90" s="20"/>
+      <c r="S90" s="20"/>
+      <c r="T90" s="20"/>
+      <c r="U90" s="20"/>
+    </row>
+    <row r="91" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="78">
+        <v>42</v>
+      </c>
+      <c r="C91" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" s="81"/>
+      <c r="E91" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="44"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="20"/>
+      <c r="R91" s="20"/>
+      <c r="S91" s="20"/>
+      <c r="T91" s="20"/>
+      <c r="U91" s="20"/>
+    </row>
+    <row r="92" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="79"/>
+      <c r="C92" s="82"/>
+      <c r="D92" s="83"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="45"/>
+      <c r="N92" s="20"/>
+      <c r="O92" s="20"/>
+      <c r="P92" s="20"/>
+      <c r="Q92" s="20"/>
+      <c r="R92" s="20"/>
+      <c r="S92" s="20"/>
+      <c r="T92" s="20"/>
+      <c r="U92" s="20"/>
+    </row>
+    <row r="93" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="78">
+        <v>43</v>
+      </c>
+      <c r="C93" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" s="87"/>
+      <c r="E93" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="44"/>
+      <c r="O93" s="44"/>
+      <c r="P93" s="44"/>
+      <c r="Q93" s="20"/>
+      <c r="R93" s="20"/>
+      <c r="S93" s="20"/>
+      <c r="T93" s="20"/>
+      <c r="U93" s="20"/>
+    </row>
+    <row r="94" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="79"/>
+      <c r="C94" s="88"/>
+      <c r="D94" s="89"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="45"/>
+      <c r="N94" s="20"/>
+      <c r="O94" s="20"/>
+      <c r="P94" s="20"/>
+      <c r="Q94" s="20"/>
+      <c r="R94" s="20"/>
+      <c r="S94" s="20"/>
+      <c r="T94" s="20"/>
+      <c r="U94" s="20"/>
+    </row>
+    <row r="95" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="78">
+        <v>44</v>
+      </c>
+      <c r="C95" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="D95" s="87"/>
+      <c r="E95" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="20"/>
+      <c r="M95" s="20"/>
+      <c r="N95" s="20"/>
+      <c r="O95" s="20"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="44"/>
+      <c r="R95" s="44"/>
+      <c r="S95" s="20"/>
+      <c r="T95" s="20"/>
+      <c r="U95" s="20"/>
+    </row>
+    <row r="96" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="79"/>
+      <c r="C96" s="88"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="85"/>
+      <c r="F96" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="20"/>
+      <c r="O96" s="20"/>
+      <c r="P96" s="20"/>
+      <c r="Q96" s="20"/>
+      <c r="R96" s="20"/>
+      <c r="S96" s="20"/>
+      <c r="T96" s="20"/>
+      <c r="U96" s="20"/>
+    </row>
+    <row r="97" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="78">
+        <v>45</v>
+      </c>
+      <c r="C97" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="D97" s="87"/>
+      <c r="E97" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="44"/>
+      <c r="M97" s="44"/>
+      <c r="N97" s="20"/>
+      <c r="O97" s="20"/>
+      <c r="P97" s="20"/>
+      <c r="Q97" s="20"/>
+      <c r="R97" s="20"/>
+      <c r="S97" s="20"/>
+      <c r="T97" s="20"/>
+      <c r="U97" s="20"/>
+    </row>
+    <row r="98" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="79"/>
+      <c r="C98" s="88"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="85"/>
+      <c r="F98" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20"/>
+      <c r="M98" s="45"/>
+      <c r="N98" s="45"/>
+      <c r="O98" s="20"/>
+      <c r="P98" s="20"/>
+      <c r="Q98" s="20"/>
+      <c r="R98" s="20"/>
+      <c r="S98" s="20"/>
+      <c r="T98" s="20"/>
+      <c r="U98" s="20"/>
+    </row>
+    <row r="99" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="78">
+        <v>46</v>
+      </c>
+      <c r="C99" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="D99" s="87"/>
+      <c r="E99" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="44"/>
+      <c r="L99" s="44"/>
+      <c r="M99" s="44"/>
+      <c r="N99" s="20"/>
+      <c r="O99" s="20"/>
+      <c r="P99" s="20"/>
+      <c r="Q99" s="20"/>
+      <c r="R99" s="20"/>
+      <c r="S99" s="20"/>
+      <c r="T99" s="20"/>
+      <c r="U99" s="20"/>
+    </row>
+    <row r="100" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="79"/>
+      <c r="C100" s="88"/>
+      <c r="D100" s="89"/>
+      <c r="E100" s="85"/>
+      <c r="F100" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="45"/>
+      <c r="N100" s="20"/>
+      <c r="O100" s="20"/>
+      <c r="P100" s="20"/>
+      <c r="Q100" s="20"/>
+      <c r="R100" s="20"/>
+      <c r="S100" s="20"/>
+      <c r="T100" s="20"/>
+      <c r="U100" s="20"/>
+    </row>
+    <row r="101" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="78">
+        <v>47</v>
+      </c>
+      <c r="C101" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="D101" s="81"/>
+      <c r="E101" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="20"/>
+      <c r="M101" s="44"/>
+      <c r="N101" s="44"/>
+      <c r="O101" s="20"/>
+      <c r="P101" s="20"/>
+      <c r="Q101" s="20"/>
+      <c r="R101" s="20"/>
+      <c r="S101" s="20"/>
+      <c r="T101" s="20"/>
+      <c r="U101" s="20"/>
+    </row>
+    <row r="102" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="79"/>
+      <c r="C102" s="82"/>
+      <c r="D102" s="83"/>
+      <c r="E102" s="85"/>
+      <c r="F102" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="45"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="20"/>
+      <c r="O102" s="20"/>
+      <c r="P102" s="20"/>
+      <c r="Q102" s="20"/>
+      <c r="R102" s="20"/>
+      <c r="S102" s="20"/>
+      <c r="T102" s="20"/>
+      <c r="U102" s="20"/>
+    </row>
+    <row r="103" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="78">
+        <v>48</v>
+      </c>
+      <c r="C103" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="D103" s="81"/>
+      <c r="E103" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="44"/>
+      <c r="N103" s="44"/>
+      <c r="O103" s="20"/>
+      <c r="P103" s="20"/>
+      <c r="Q103" s="20"/>
+      <c r="R103" s="20"/>
+      <c r="S103" s="20"/>
+      <c r="T103" s="20"/>
+      <c r="U103" s="20"/>
+    </row>
+    <row r="104" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="79"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="83"/>
+      <c r="E104" s="85"/>
+      <c r="F104" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="20"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="45"/>
+      <c r="M104" s="20"/>
+      <c r="N104" s="20"/>
+      <c r="O104" s="20"/>
+      <c r="P104" s="20"/>
+      <c r="Q104" s="20"/>
+      <c r="R104" s="20"/>
+      <c r="S104" s="20"/>
+      <c r="T104" s="20"/>
+      <c r="U104" s="20"/>
+    </row>
+    <row r="105" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="78">
+        <v>49</v>
+      </c>
+      <c r="C105" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="D105" s="81"/>
+      <c r="E105" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="20"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="20"/>
+      <c r="M105" s="44"/>
+      <c r="N105" s="44"/>
+      <c r="O105" s="20"/>
+      <c r="P105" s="20"/>
+      <c r="Q105" s="20"/>
+      <c r="R105" s="20"/>
+      <c r="S105" s="20"/>
+      <c r="T105" s="20"/>
+      <c r="U105" s="20"/>
+    </row>
+    <row r="106" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="79"/>
+      <c r="C106" s="82"/>
+      <c r="D106" s="83"/>
+      <c r="E106" s="85"/>
+      <c r="F106" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="45"/>
+      <c r="M106" s="20"/>
+      <c r="N106" s="20"/>
+      <c r="O106" s="20"/>
+      <c r="P106" s="20"/>
+      <c r="Q106" s="20"/>
+      <c r="R106" s="20"/>
+      <c r="S106" s="20"/>
+      <c r="T106" s="20"/>
+      <c r="U106" s="20"/>
+    </row>
+    <row r="107" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="78">
+        <v>50</v>
+      </c>
+      <c r="C107" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="D107" s="81"/>
+      <c r="E107" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="20"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="44"/>
+      <c r="M107" s="44"/>
+      <c r="N107" s="44"/>
+      <c r="O107" s="20"/>
+      <c r="P107" s="20"/>
+      <c r="Q107" s="20"/>
+      <c r="R107" s="20"/>
+      <c r="S107" s="20"/>
+      <c r="T107" s="20"/>
+      <c r="U107" s="20"/>
+    </row>
+    <row r="108" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="79"/>
+      <c r="C108" s="82"/>
+      <c r="D108" s="83"/>
+      <c r="E108" s="85"/>
+      <c r="F108" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="20"/>
+      <c r="K108" s="20"/>
+      <c r="L108" s="20"/>
+      <c r="M108" s="45"/>
+      <c r="N108" s="20"/>
+      <c r="O108" s="20"/>
+      <c r="P108" s="20"/>
+      <c r="Q108" s="20"/>
+      <c r="R108" s="20"/>
+      <c r="S108" s="20"/>
+      <c r="T108" s="20"/>
+      <c r="U108" s="20"/>
+    </row>
+    <row r="109" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="78">
+        <v>51</v>
+      </c>
+      <c r="C109" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="D109" s="81"/>
+      <c r="E109" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="20"/>
+      <c r="K109" s="20"/>
+      <c r="L109" s="44"/>
+      <c r="M109" s="44"/>
+      <c r="N109" s="44"/>
+      <c r="O109" s="20"/>
+      <c r="P109" s="20"/>
+      <c r="Q109" s="20"/>
+      <c r="R109" s="20"/>
+      <c r="S109" s="20"/>
+      <c r="T109" s="20"/>
+      <c r="U109" s="20"/>
+    </row>
+    <row r="110" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="79"/>
+      <c r="C110" s="82"/>
+      <c r="D110" s="83"/>
+      <c r="E110" s="85"/>
+      <c r="F110" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="20"/>
+      <c r="K110" s="20"/>
+      <c r="L110" s="20"/>
+      <c r="N110" s="20"/>
+      <c r="O110" s="20"/>
+      <c r="P110" s="20"/>
+      <c r="Q110" s="20"/>
+      <c r="R110" s="20"/>
+      <c r="S110" s="20"/>
+      <c r="T110" s="20"/>
+      <c r="U110" s="20"/>
+    </row>
+    <row r="111" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="78">
+        <v>52</v>
+      </c>
+      <c r="C111" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="D111" s="81"/>
+      <c r="E111" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="44"/>
+      <c r="M111" s="44"/>
+      <c r="N111" s="44"/>
+      <c r="O111" s="20"/>
+      <c r="P111" s="20"/>
+      <c r="Q111" s="20"/>
+      <c r="R111" s="20"/>
+      <c r="S111" s="20"/>
+      <c r="T111" s="20"/>
+      <c r="U111" s="20"/>
+    </row>
+    <row r="112" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="79"/>
+      <c r="C112" s="82"/>
+      <c r="D112" s="83"/>
+      <c r="E112" s="85"/>
+      <c r="F112" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="45"/>
+      <c r="M112" s="20"/>
+      <c r="N112" s="20"/>
+      <c r="O112" s="20"/>
+      <c r="P112" s="20"/>
+      <c r="Q112" s="20"/>
+      <c r="R112" s="20"/>
+      <c r="S112" s="20"/>
+      <c r="T112" s="20"/>
+      <c r="U112" s="20"/>
+    </row>
+    <row r="113" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="78">
+        <v>53</v>
+      </c>
+      <c r="C113" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="D113" s="81"/>
+      <c r="E113" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="20"/>
+      <c r="K113" s="20"/>
+      <c r="L113" s="44"/>
+      <c r="M113" s="44"/>
+      <c r="N113" s="44"/>
+      <c r="O113" s="20"/>
+      <c r="P113" s="20"/>
+      <c r="Q113" s="20"/>
+      <c r="R113" s="20"/>
+      <c r="S113" s="20"/>
+      <c r="T113" s="20"/>
+      <c r="U113" s="20"/>
+    </row>
+    <row r="114" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="79"/>
+      <c r="C114" s="82"/>
+      <c r="D114" s="83"/>
+      <c r="E114" s="85"/>
+      <c r="F114" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="20"/>
+      <c r="K114" s="20"/>
+      <c r="L114" s="45"/>
+      <c r="M114" s="20"/>
+      <c r="N114" s="20"/>
+      <c r="O114" s="20"/>
+      <c r="P114" s="20"/>
+      <c r="Q114" s="20"/>
+      <c r="R114" s="20"/>
+      <c r="S114" s="20"/>
+      <c r="T114" s="20"/>
+      <c r="U114" s="20"/>
+    </row>
+    <row r="115" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="78">
+        <v>54</v>
+      </c>
+      <c r="C115" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="D115" s="81"/>
+      <c r="E115" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G115" s="44"/>
+      <c r="H115" s="44"/>
+      <c r="I115" s="44"/>
+      <c r="J115" s="44"/>
+      <c r="K115" s="44"/>
+      <c r="L115" s="44"/>
+      <c r="M115" s="44"/>
+      <c r="N115" s="44"/>
+      <c r="O115" s="44"/>
+      <c r="P115" s="44"/>
+      <c r="Q115" s="44"/>
+      <c r="R115" s="44"/>
+      <c r="S115" s="44"/>
+      <c r="T115" s="44"/>
+      <c r="U115" s="44"/>
+    </row>
+    <row r="116" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="79"/>
+      <c r="C116" s="82"/>
+      <c r="D116" s="83"/>
+      <c r="E116" s="79"/>
+      <c r="F116" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="20"/>
+      <c r="K116" s="20"/>
+      <c r="L116" s="20"/>
+      <c r="M116" s="20"/>
+      <c r="N116" s="20"/>
+      <c r="O116" s="20"/>
+      <c r="P116" s="20"/>
+      <c r="Q116" s="20"/>
+      <c r="R116" s="20"/>
+      <c r="S116" s="20"/>
+      <c r="T116" s="20"/>
+      <c r="U116" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
+  <mergeCells count="165">
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:U4"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="G9:U9"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:E16"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
@@ -5006,45 +6581,160 @@
     <mergeCell ref="C21:D22"/>
     <mergeCell ref="C17:D18"/>
     <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:U4"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="G9:U9"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:E46"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="C55:D56"/>
     <mergeCell ref="E55:E56"/>
     <mergeCell ref="E57:E58"/>
     <mergeCell ref="C57:D58"/>
     <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E15" r:id="rId1"/>
+    <hyperlink ref="E25" r:id="rId2"/>
+    <hyperlink ref="E21" r:id="rId3"/>
+    <hyperlink ref="E27" r:id="rId4"/>
+    <hyperlink ref="E33" r:id="rId5"/>
+    <hyperlink ref="E37" r:id="rId6"/>
+    <hyperlink ref="E39" r:id="rId7"/>
+    <hyperlink ref="E41" r:id="rId8"/>
+    <hyperlink ref="E49" r:id="rId9"/>
+    <hyperlink ref="E45" r:id="rId10"/>
+    <hyperlink ref="E43" r:id="rId11"/>
+    <hyperlink ref="E47" r:id="rId12"/>
+    <hyperlink ref="E51" r:id="rId13"/>
+    <hyperlink ref="E53" r:id="rId14"/>
+    <hyperlink ref="E91" r:id="rId15"/>
+    <hyperlink ref="E99" r:id="rId16"/>
+    <hyperlink ref="E93" r:id="rId17"/>
+    <hyperlink ref="E97" r:id="rId18"/>
+    <hyperlink ref="E87" r:id="rId19"/>
+    <hyperlink ref="E88" r:id="rId20"/>
+    <hyperlink ref="E85" r:id="rId21"/>
+    <hyperlink ref="E105" r:id="rId22"/>
+    <hyperlink ref="E103" r:id="rId23"/>
+    <hyperlink ref="E111" r:id="rId24"/>
+    <hyperlink ref="E101" r:id="rId25"/>
+    <hyperlink ref="E107" r:id="rId26"/>
+    <hyperlink ref="E109" r:id="rId27"/>
+    <hyperlink ref="E113" r:id="rId28"/>
+    <hyperlink ref="E65" r:id="rId29"/>
+    <hyperlink ref="E11" r:id="rId30"/>
+    <hyperlink ref="E13" r:id="rId31"/>
+    <hyperlink ref="E19" r:id="rId32"/>
+    <hyperlink ref="E67" r:id="rId33"/>
+    <hyperlink ref="E73" r:id="rId34"/>
+    <hyperlink ref="E55" r:id="rId35"/>
+    <hyperlink ref="E81" r:id="rId36"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup scale="55" orientation="portrait" r:id="rId37"/>
+  <drawing r:id="rId38"/>
 </worksheet>
 </file>
 

--- a/Documentación/CRONOGRAMA DEL PROYECTO.xlsx
+++ b/Documentación/CRONOGRAMA DEL PROYECTO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arely\Desktop\Cuatri 7\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arely\Desktop\Cuatri 7\Proyecto\Nueva carpeta\Equipo-5\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="16605" windowHeight="7575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="16605" windowHeight="7575"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="2" r:id="rId1"/>
@@ -1226,104 +1226,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1897,7 +1897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -2142,7 +2142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -3441,7 +3441,7 @@
   <dimension ref="A1:W116"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="V59" sqref="V59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3525,10 +3525,10 @@
       <c r="U4" s="77"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="104"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="35" t="s">
         <v>61</v>
       </c>
@@ -3556,10 +3556,10 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="104"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="14" t="s">
         <v>62</v>
       </c>
@@ -3583,43 +3583,43 @@
       <c r="J8" s="34"/>
     </row>
     <row r="9" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="102" t="s">
+      <c r="D9" s="83"/>
+      <c r="E9" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="100" t="s">
+      <c r="F9" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="109"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="87"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="103"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="101"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="42">
         <v>1</v>
       </c>
@@ -3667,14 +3667,14 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="99">
+      <c r="B11" s="96">
         <v>1</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="97" t="s">
+      <c r="D11" s="91"/>
+      <c r="E11" s="94" t="s">
         <v>157</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -3697,10 +3697,10 @@
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="99"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="98"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="95"/>
       <c r="F12" s="4" t="s">
         <v>36</v>
       </c>
@@ -3721,14 +3721,14 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="99">
+      <c r="B13" s="96">
         <v>2</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="97" t="s">
+      <c r="D13" s="91"/>
+      <c r="E13" s="94" t="s">
         <v>158</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -3751,10 +3751,10 @@
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="99"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="98"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="95"/>
       <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3775,14 +3775,14 @@
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="99">
+      <c r="B15" s="96">
         <v>3</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="97" t="s">
+      <c r="D15" s="91"/>
+      <c r="E15" s="94" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -3805,10 +3805,10 @@
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="99"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="98"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="95"/>
       <c r="F16" s="4" t="s">
         <v>36</v>
       </c>
@@ -3829,14 +3829,14 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="99">
+      <c r="B17" s="96">
         <v>4</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="91" t="s">
+      <c r="D17" s="98"/>
+      <c r="E17" s="88" t="s">
         <v>72</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -3858,10 +3858,10 @@
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="99"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="92"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="89"/>
       <c r="F18" s="4" t="s">
         <v>36</v>
       </c>
@@ -3882,14 +3882,14 @@
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="99">
+      <c r="B19" s="96">
         <v>5</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="97" t="s">
+      <c r="D19" s="98"/>
+      <c r="E19" s="94" t="s">
         <v>163</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -3912,10 +3912,10 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="99"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="98"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="95"/>
       <c r="F20" s="4" t="s">
         <v>36</v>
       </c>
@@ -3936,14 +3936,14 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="99">
+      <c r="B21" s="96">
         <v>6</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="84" t="s">
+      <c r="D21" s="98"/>
+      <c r="E21" s="101" t="s">
         <v>114</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -3966,10 +3966,10 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="99"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="85"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="102"/>
       <c r="F22" s="4" t="s">
         <v>36</v>
       </c>
@@ -3990,14 +3990,14 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="99">
+      <c r="B23" s="96">
         <v>7</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="91" t="s">
+      <c r="D23" s="98"/>
+      <c r="E23" s="88" t="s">
         <v>54</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -4020,10 +4020,10 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="99"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="92"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="89"/>
       <c r="F24" s="4" t="s">
         <v>36</v>
       </c>
@@ -4044,14 +4044,14 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="99">
+      <c r="B25" s="96">
         <v>8</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="87"/>
-      <c r="E25" s="97" t="s">
+      <c r="D25" s="98"/>
+      <c r="E25" s="94" t="s">
         <v>94</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -4074,10 +4074,10 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="99"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="98"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="95"/>
       <c r="F26" s="4" t="s">
         <v>36</v>
       </c>
@@ -4098,14 +4098,14 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="99">
+      <c r="B27" s="96">
         <v>9</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="97" t="s">
+      <c r="D27" s="98"/>
+      <c r="E27" s="94" t="s">
         <v>156</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -4127,10 +4127,10 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="99"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="98"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="95"/>
       <c r="F28" s="4" t="s">
         <v>36</v>
       </c>
@@ -4151,14 +4151,14 @@
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="99">
+      <c r="B29" s="96">
         <v>10</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="81"/>
-      <c r="E29" s="91" t="s">
+      <c r="D29" s="91"/>
+      <c r="E29" s="88" t="s">
         <v>73</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -4180,10 +4180,10 @@
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="99"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="92"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="89"/>
       <c r="F30" s="4" t="s">
         <v>36</v>
       </c>
@@ -4204,14 +4204,14 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="99">
+      <c r="B31" s="96">
         <v>12</v>
       </c>
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="87"/>
-      <c r="E31" s="91" t="s">
+      <c r="D31" s="98"/>
+      <c r="E31" s="88" t="s">
         <v>73</v>
       </c>
       <c r="F31" s="4" t="s">
@@ -4234,10 +4234,10 @@
       <c r="U31" s="20"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="99"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="92"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="89"/>
       <c r="F32" s="4" t="s">
         <v>36</v>
       </c>
@@ -4258,14 +4258,14 @@
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="91">
+      <c r="B33" s="88">
         <v>13</v>
       </c>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="87"/>
-      <c r="E33" s="97" t="s">
+      <c r="D33" s="98"/>
+      <c r="E33" s="94" t="s">
         <v>125</v>
       </c>
       <c r="F33" s="4" t="s">
@@ -4288,10 +4288,10 @@
       <c r="U33" s="4"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="92"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="98"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="95"/>
       <c r="F34" s="4" t="s">
         <v>36</v>
       </c>
@@ -4312,14 +4312,14 @@
       <c r="U34" s="4"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="91">
+      <c r="B35" s="88">
         <v>14</v>
       </c>
-      <c r="C35" s="86" t="s">
+      <c r="C35" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="87"/>
-      <c r="E35" s="91" t="s">
+      <c r="D35" s="98"/>
+      <c r="E35" s="88" t="s">
         <v>74</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -4341,10 +4341,10 @@
       <c r="U35" s="4"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="92"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="92"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="89"/>
       <c r="F36" s="4" t="s">
         <v>36</v>
       </c>
@@ -4365,14 +4365,14 @@
       <c r="U36" s="4"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="91">
+      <c r="B37" s="88">
         <v>15</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="81"/>
-      <c r="E37" s="97" t="s">
+      <c r="D37" s="91"/>
+      <c r="E37" s="94" t="s">
         <v>126</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -4392,10 +4392,10 @@
       <c r="U37" s="4"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B38" s="92"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="98"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="95"/>
       <c r="F38" s="4" t="s">
         <v>36</v>
       </c>
@@ -4416,14 +4416,14 @@
       <c r="U38" s="4"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B39" s="91">
+      <c r="B39" s="88">
         <v>16</v>
       </c>
-      <c r="C39" s="86" t="s">
+      <c r="C39" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="87"/>
-      <c r="E39" s="97" t="s">
+      <c r="D39" s="98"/>
+      <c r="E39" s="94" t="s">
         <v>127</v>
       </c>
       <c r="F39" s="4" t="s">
@@ -4446,10 +4446,10 @@
       <c r="U39" s="38"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="92"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="98"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="95"/>
       <c r="F40" s="4" t="s">
         <v>36</v>
       </c>
@@ -4470,14 +4470,14 @@
       <c r="U40" s="4"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B41" s="91">
+      <c r="B41" s="88">
         <v>17</v>
       </c>
-      <c r="C41" s="86" t="s">
+      <c r="C41" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="87"/>
-      <c r="E41" s="97" t="s">
+      <c r="D41" s="98"/>
+      <c r="E41" s="94" t="s">
         <v>128</v>
       </c>
       <c r="F41" s="4" t="s">
@@ -4500,10 +4500,10 @@
       <c r="U41" s="4"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B42" s="92"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="98"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="95"/>
       <c r="F42" s="4" t="s">
         <v>36</v>
       </c>
@@ -4524,14 +4524,14 @@
       <c r="U42" s="4"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B43" s="91">
+      <c r="B43" s="88">
         <v>18</v>
       </c>
-      <c r="C43" s="80" t="s">
+      <c r="C43" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="81"/>
-      <c r="E43" s="97" t="s">
+      <c r="D43" s="91"/>
+      <c r="E43" s="94" t="s">
         <v>131</v>
       </c>
       <c r="F43" s="4" t="s">
@@ -4554,10 +4554,10 @@
       <c r="U43" s="4"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B44" s="92"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="98"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="95"/>
       <c r="F44" s="4" t="s">
         <v>36</v>
       </c>
@@ -4578,14 +4578,14 @@
       <c r="U44" s="4"/>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B45" s="91">
+      <c r="B45" s="88">
         <v>19</v>
       </c>
-      <c r="C45" s="86" t="s">
+      <c r="C45" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="87"/>
-      <c r="E45" s="97" t="s">
+      <c r="D45" s="98"/>
+      <c r="E45" s="94" t="s">
         <v>130</v>
       </c>
       <c r="F45" s="38" t="s">
@@ -4608,10 +4608,10 @@
       <c r="U45" s="38"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B46" s="92"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="98"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="95"/>
       <c r="F46" s="4" t="s">
         <v>36</v>
       </c>
@@ -4632,14 +4632,14 @@
       <c r="U46" s="4"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B47" s="91">
+      <c r="B47" s="88">
         <v>20</v>
       </c>
-      <c r="C47" s="80" t="s">
+      <c r="C47" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="D47" s="81"/>
-      <c r="E47" s="97" t="s">
+      <c r="D47" s="91"/>
+      <c r="E47" s="94" t="s">
         <v>132</v>
       </c>
       <c r="F47" s="4" t="s">
@@ -4662,10 +4662,10 @@
       <c r="U47" s="4"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B48" s="92"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="98"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="95"/>
       <c r="F48" s="4" t="s">
         <v>36</v>
       </c>
@@ -4686,14 +4686,14 @@
       <c r="U48" s="4"/>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B49" s="91">
+      <c r="B49" s="88">
         <v>21</v>
       </c>
-      <c r="C49" s="80" t="s">
+      <c r="C49" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="81"/>
-      <c r="E49" s="97" t="s">
+      <c r="D49" s="91"/>
+      <c r="E49" s="94" t="s">
         <v>129</v>
       </c>
       <c r="F49" s="4" t="s">
@@ -4716,10 +4716,10 @@
       <c r="U49" s="4"/>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B50" s="92"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="98"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="95"/>
       <c r="F50" s="4" t="s">
         <v>36</v>
       </c>
@@ -4740,14 +4740,14 @@
       <c r="U50" s="4"/>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B51" s="91">
+      <c r="B51" s="88">
         <v>22</v>
       </c>
-      <c r="C51" s="80" t="s">
+      <c r="C51" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="81"/>
-      <c r="E51" s="97" t="s">
+      <c r="D51" s="91"/>
+      <c r="E51" s="94" t="s">
         <v>133</v>
       </c>
       <c r="F51" s="4" t="s">
@@ -4770,10 +4770,10 @@
       <c r="U51" s="4"/>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B52" s="92"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="98"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="95"/>
       <c r="F52" s="4" t="s">
         <v>36</v>
       </c>
@@ -4794,14 +4794,14 @@
       <c r="U52" s="4"/>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B53" s="91">
+      <c r="B53" s="88">
         <v>23</v>
       </c>
-      <c r="C53" s="80" t="s">
+      <c r="C53" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="81"/>
-      <c r="E53" s="97" t="s">
+      <c r="D53" s="91"/>
+      <c r="E53" s="94" t="s">
         <v>135</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -4824,10 +4824,10 @@
       <c r="U53" s="4"/>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B54" s="92"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="98"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="95"/>
       <c r="F54" s="4" t="s">
         <v>36</v>
       </c>
@@ -4848,14 +4848,14 @@
       <c r="U54" s="4"/>
     </row>
     <row r="55" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="91">
+      <c r="B55" s="88">
         <v>24</v>
       </c>
-      <c r="C55" s="80" t="s">
+      <c r="C55" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="D55" s="81"/>
-      <c r="E55" s="97" t="s">
+      <c r="D55" s="91"/>
+      <c r="E55" s="94" t="s">
         <v>166</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -4878,10 +4878,10 @@
       <c r="U55" s="4"/>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B56" s="92"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="98"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="95"/>
       <c r="F56" s="4" t="s">
         <v>36</v>
       </c>
@@ -4902,14 +4902,14 @@
       <c r="U56" s="4"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B57" s="91">
+      <c r="B57" s="88">
         <v>25</v>
       </c>
-      <c r="C57" s="80" t="s">
+      <c r="C57" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="81"/>
-      <c r="E57" s="91" t="s">
+      <c r="D57" s="91"/>
+      <c r="E57" s="88" t="s">
         <v>64</v>
       </c>
       <c r="F57" s="4" t="s">
@@ -4932,10 +4932,10 @@
       <c r="U57" s="44"/>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B58" s="92"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="92"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="93"/>
+      <c r="E58" s="89"/>
       <c r="F58" s="4" t="s">
         <v>36</v>
       </c>
@@ -4956,14 +4956,14 @@
       <c r="U58" s="4"/>
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B59" s="91">
+      <c r="B59" s="88">
         <v>26</v>
       </c>
-      <c r="C59" s="80" t="s">
+      <c r="C59" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="81"/>
-      <c r="E59" s="91" t="s">
+      <c r="D59" s="91"/>
+      <c r="E59" s="88" t="s">
         <v>64</v>
       </c>
       <c r="F59" s="4" t="s">
@@ -4986,10 +4986,10 @@
       <c r="U59" s="44"/>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B60" s="92"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="92"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="89"/>
       <c r="F60" s="4" t="s">
         <v>36</v>
       </c>
@@ -5010,14 +5010,14 @@
       <c r="U60" s="4"/>
     </row>
     <row r="61" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="91">
+      <c r="B61" s="88">
         <v>27</v>
       </c>
-      <c r="C61" s="80" t="s">
+      <c r="C61" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="81"/>
-      <c r="E61" s="91" t="s">
+      <c r="D61" s="91"/>
+      <c r="E61" s="88" t="s">
         <v>64</v>
       </c>
       <c r="F61" s="4" t="s">
@@ -5040,10 +5040,10 @@
       <c r="U61" s="44"/>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B62" s="92"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="92"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="89"/>
       <c r="F62" s="4" t="s">
         <v>36</v>
       </c>
@@ -5064,14 +5064,14 @@
       <c r="U62" s="4"/>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B63" s="91">
+      <c r="B63" s="88">
         <v>28</v>
       </c>
-      <c r="C63" s="80" t="s">
+      <c r="C63" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="D63" s="81"/>
-      <c r="E63" s="110" t="s">
+      <c r="D63" s="91"/>
+      <c r="E63" s="105" t="s">
         <v>113</v>
       </c>
       <c r="F63" s="4" t="s">
@@ -5094,10 +5094,10 @@
       <c r="U63" s="4"/>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B64" s="92"/>
-      <c r="C64" s="82"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="92"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="89"/>
       <c r="F64" s="4" t="s">
         <v>36</v>
       </c>
@@ -5107,7 +5107,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="20"/>
       <c r="L64" s="20"/>
-      <c r="M64" s="45"/>
+      <c r="M64" s="20"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
@@ -5118,14 +5118,14 @@
       <c r="U64" s="4"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B65" s="91">
+      <c r="B65" s="88">
         <v>29</v>
       </c>
-      <c r="C65" s="80" t="s">
+      <c r="C65" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="D65" s="81"/>
-      <c r="E65" s="97" t="s">
+      <c r="D65" s="91"/>
+      <c r="E65" s="94" t="s">
         <v>124</v>
       </c>
       <c r="F65" s="4" t="s">
@@ -5148,10 +5148,10 @@
       <c r="U65" s="20"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B66" s="92"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="98"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="95"/>
       <c r="F66" s="4" t="s">
         <v>36</v>
       </c>
@@ -5172,14 +5172,14 @@
       <c r="U66" s="4"/>
     </row>
     <row r="67" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="91">
+      <c r="B67" s="88">
         <v>30</v>
       </c>
-      <c r="C67" s="80" t="s">
+      <c r="C67" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="D67" s="81"/>
-      <c r="E67" s="97" t="s">
+      <c r="D67" s="91"/>
+      <c r="E67" s="94" t="s">
         <v>137</v>
       </c>
       <c r="F67" s="4" t="s">
@@ -5202,10 +5202,10 @@
       <c r="U67" s="20"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B68" s="92"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="98"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="95"/>
       <c r="F68" s="4" t="s">
         <v>36</v>
       </c>
@@ -5227,14 +5227,14 @@
     </row>
     <row r="69" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="50"/>
-      <c r="B69" s="78">
+      <c r="B69" s="103">
         <v>31</v>
       </c>
-      <c r="C69" s="93" t="s">
+      <c r="C69" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="D69" s="94"/>
-      <c r="E69" s="91" t="s">
+      <c r="D69" s="107"/>
+      <c r="E69" s="88" t="s">
         <v>113</v>
       </c>
       <c r="F69" s="4" t="s">
@@ -5258,10 +5258,10 @@
     </row>
     <row r="70" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="50"/>
-      <c r="B70" s="79"/>
-      <c r="C70" s="95"/>
-      <c r="D70" s="96"/>
-      <c r="E70" s="92"/>
+      <c r="B70" s="104"/>
+      <c r="C70" s="108"/>
+      <c r="D70" s="109"/>
+      <c r="E70" s="89"/>
       <c r="F70" s="4" t="s">
         <v>36</v>
       </c>
@@ -5282,14 +5282,14 @@
       <c r="U70" s="51"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B71" s="91">
+      <c r="B71" s="88">
         <v>32</v>
       </c>
-      <c r="C71" s="80" t="s">
+      <c r="C71" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="D71" s="81"/>
-      <c r="E71" s="91" t="s">
+      <c r="D71" s="91"/>
+      <c r="E71" s="88" t="s">
         <v>113</v>
       </c>
       <c r="F71" s="4" t="s">
@@ -5312,10 +5312,10 @@
       <c r="U71" s="4"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B72" s="92"/>
-      <c r="C72" s="82"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="92"/>
+      <c r="B72" s="89"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="89"/>
       <c r="F72" s="4" t="s">
         <v>36</v>
       </c>
@@ -5336,14 +5336,14 @@
       <c r="U72" s="4"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B73" s="78">
+      <c r="B73" s="103">
         <v>33</v>
       </c>
-      <c r="C73" s="80" t="s">
+      <c r="C73" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="D73" s="81"/>
-      <c r="E73" s="97" t="s">
+      <c r="D73" s="91"/>
+      <c r="E73" s="94" t="s">
         <v>164</v>
       </c>
       <c r="F73" s="4" t="s">
@@ -5366,10 +5366,10 @@
       <c r="U73" s="4"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B74" s="79"/>
-      <c r="C74" s="82"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="98"/>
+      <c r="B74" s="104"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="95"/>
       <c r="F74" s="4" t="s">
         <v>36</v>
       </c>
@@ -5390,14 +5390,14 @@
       <c r="U74" s="4"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B75" s="78">
+      <c r="B75" s="103">
         <v>34</v>
       </c>
-      <c r="C75" s="80" t="s">
+      <c r="C75" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="D75" s="81"/>
-      <c r="E75" s="78" t="s">
+      <c r="D75" s="91"/>
+      <c r="E75" s="103" t="s">
         <v>113</v>
       </c>
       <c r="F75" s="4" t="s">
@@ -5420,10 +5420,10 @@
       <c r="U75" s="20"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B76" s="79"/>
-      <c r="C76" s="82"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="79"/>
+      <c r="B76" s="104"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="93"/>
+      <c r="E76" s="104"/>
       <c r="F76" s="4" t="s">
         <v>36</v>
       </c>
@@ -5444,14 +5444,14 @@
       <c r="U76" s="4"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B77" s="78">
+      <c r="B77" s="103">
         <v>35</v>
       </c>
-      <c r="C77" s="80" t="s">
+      <c r="C77" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="81"/>
-      <c r="E77" s="91" t="s">
+      <c r="D77" s="91"/>
+      <c r="E77" s="88" t="s">
         <v>113</v>
       </c>
       <c r="F77" s="4" t="s">
@@ -5474,10 +5474,10 @@
       <c r="U77" s="4"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B78" s="79"/>
-      <c r="C78" s="82"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="92"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="93"/>
+      <c r="E78" s="89"/>
       <c r="F78" s="4" t="s">
         <v>36</v>
       </c>
@@ -5498,14 +5498,14 @@
       <c r="U78" s="4"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B79" s="78">
+      <c r="B79" s="103">
         <v>36</v>
       </c>
-      <c r="C79" s="80" t="s">
+      <c r="C79" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="D79" s="81"/>
-      <c r="E79" s="91" t="s">
+      <c r="D79" s="91"/>
+      <c r="E79" s="88" t="s">
         <v>113</v>
       </c>
       <c r="F79" s="4" t="s">
@@ -5528,10 +5528,10 @@
       <c r="U79" s="4"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B80" s="79"/>
-      <c r="C80" s="82"/>
-      <c r="D80" s="83"/>
-      <c r="E80" s="92"/>
+      <c r="B80" s="104"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="93"/>
+      <c r="E80" s="89"/>
       <c r="F80" s="4" t="s">
         <v>36</v>
       </c>
@@ -5552,14 +5552,14 @@
       <c r="U80" s="4"/>
     </row>
     <row r="81" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B81" s="91">
+      <c r="B81" s="88">
         <v>37</v>
       </c>
-      <c r="C81" s="80" t="s">
+      <c r="C81" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="D81" s="81"/>
-      <c r="E81" s="97" t="s">
+      <c r="D81" s="91"/>
+      <c r="E81" s="94" t="s">
         <v>167</v>
       </c>
       <c r="F81" s="4" t="s">
@@ -5582,10 +5582,10 @@
       <c r="U81" s="4"/>
     </row>
     <row r="82" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B82" s="92"/>
-      <c r="C82" s="82"/>
-      <c r="D82" s="83"/>
-      <c r="E82" s="98"/>
+      <c r="B82" s="89"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="93"/>
+      <c r="E82" s="95"/>
       <c r="F82" s="4" t="s">
         <v>36</v>
       </c>
@@ -5606,14 +5606,14 @@
       <c r="U82" s="4"/>
     </row>
     <row r="83" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B83" s="78">
+      <c r="B83" s="103">
         <v>38</v>
       </c>
-      <c r="C83" s="80" t="s">
+      <c r="C83" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="D83" s="81"/>
-      <c r="E83" s="91" t="s">
+      <c r="D83" s="91"/>
+      <c r="E83" s="88" t="s">
         <v>113</v>
       </c>
       <c r="F83" s="4" t="s">
@@ -5636,10 +5636,10 @@
       <c r="U83" s="4"/>
     </row>
     <row r="84" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B84" s="79"/>
-      <c r="C84" s="82"/>
-      <c r="D84" s="83"/>
-      <c r="E84" s="92"/>
+      <c r="B84" s="104"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="93"/>
+      <c r="E84" s="89"/>
       <c r="F84" s="4" t="s">
         <v>36</v>
       </c>
@@ -5660,14 +5660,14 @@
       <c r="U84" s="4"/>
     </row>
     <row r="85" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="78">
+      <c r="B85" s="103">
         <v>39</v>
       </c>
-      <c r="C85" s="80" t="s">
+      <c r="C85" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="D85" s="81"/>
-      <c r="E85" s="84" t="s">
+      <c r="D85" s="91"/>
+      <c r="E85" s="101" t="s">
         <v>134</v>
       </c>
       <c r="F85" s="4" t="s">
@@ -5690,10 +5690,10 @@
       <c r="U85" s="20"/>
     </row>
     <row r="86" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B86" s="79"/>
-      <c r="C86" s="82"/>
-      <c r="D86" s="83"/>
-      <c r="E86" s="85"/>
+      <c r="B86" s="104"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="93"/>
+      <c r="E86" s="102"/>
       <c r="F86" s="4" t="s">
         <v>36</v>
       </c>
@@ -5714,13 +5714,13 @@
       <c r="U86" s="20"/>
     </row>
     <row r="87" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="78">
+      <c r="B87" s="103">
         <v>40</v>
       </c>
-      <c r="C87" s="80" t="s">
+      <c r="C87" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="D87" s="81"/>
+      <c r="D87" s="91"/>
       <c r="E87" s="52" t="s">
         <v>141</v>
       </c>
@@ -5744,9 +5744,9 @@
       <c r="U87" s="20"/>
     </row>
     <row r="88" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="79"/>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83"/>
+      <c r="B88" s="104"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="93"/>
       <c r="E88" s="53" t="s">
         <v>142</v>
       </c>
@@ -5770,13 +5770,13 @@
       <c r="U88" s="20"/>
     </row>
     <row r="89" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="78">
+      <c r="B89" s="103">
         <v>41</v>
       </c>
-      <c r="C89" s="80" t="s">
+      <c r="C89" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="D89" s="81"/>
+      <c r="D89" s="91"/>
       <c r="E89" s="54" t="s">
         <v>134</v>
       </c>
@@ -5800,9 +5800,9 @@
       <c r="U89" s="20"/>
     </row>
     <row r="90" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="79"/>
-      <c r="C90" s="82"/>
-      <c r="D90" s="83"/>
+      <c r="B90" s="104"/>
+      <c r="C90" s="92"/>
+      <c r="D90" s="93"/>
       <c r="E90" s="55" t="s">
         <v>143</v>
       </c>
@@ -5826,14 +5826,14 @@
       <c r="U90" s="20"/>
     </row>
     <row r="91" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="78">
+      <c r="B91" s="103">
         <v>42</v>
       </c>
-      <c r="C91" s="80" t="s">
+      <c r="C91" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="D91" s="81"/>
-      <c r="E91" s="84" t="s">
+      <c r="D91" s="91"/>
+      <c r="E91" s="101" t="s">
         <v>136</v>
       </c>
       <c r="F91" s="4" t="s">
@@ -5856,10 +5856,10 @@
       <c r="U91" s="20"/>
     </row>
     <row r="92" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="79"/>
-      <c r="C92" s="82"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="85"/>
+      <c r="B92" s="104"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="93"/>
+      <c r="E92" s="102"/>
       <c r="F92" s="4" t="s">
         <v>36</v>
       </c>
@@ -5880,14 +5880,14 @@
       <c r="U92" s="20"/>
     </row>
     <row r="93" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="78">
+      <c r="B93" s="103">
         <v>43</v>
       </c>
-      <c r="C93" s="86" t="s">
+      <c r="C93" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="D93" s="87"/>
-      <c r="E93" s="84" t="s">
+      <c r="D93" s="98"/>
+      <c r="E93" s="101" t="s">
         <v>139</v>
       </c>
       <c r="F93" s="4" t="s">
@@ -5910,10 +5910,10 @@
       <c r="U93" s="20"/>
     </row>
     <row r="94" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="79"/>
-      <c r="C94" s="88"/>
-      <c r="D94" s="89"/>
-      <c r="E94" s="85"/>
+      <c r="B94" s="104"/>
+      <c r="C94" s="99"/>
+      <c r="D94" s="100"/>
+      <c r="E94" s="102"/>
       <c r="F94" s="4" t="s">
         <v>36</v>
       </c>
@@ -5934,14 +5934,14 @@
       <c r="U94" s="20"/>
     </row>
     <row r="95" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="78">
+      <c r="B95" s="103">
         <v>44</v>
       </c>
-      <c r="C95" s="86" t="s">
+      <c r="C95" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="D95" s="87"/>
-      <c r="E95" s="90" t="s">
+      <c r="D95" s="98"/>
+      <c r="E95" s="110" t="s">
         <v>138</v>
       </c>
       <c r="F95" s="4" t="s">
@@ -5964,10 +5964,10 @@
       <c r="U95" s="20"/>
     </row>
     <row r="96" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="79"/>
-      <c r="C96" s="88"/>
-      <c r="D96" s="89"/>
-      <c r="E96" s="85"/>
+      <c r="B96" s="104"/>
+      <c r="C96" s="99"/>
+      <c r="D96" s="100"/>
+      <c r="E96" s="102"/>
       <c r="F96" s="4" t="s">
         <v>36</v>
       </c>
@@ -5988,14 +5988,14 @@
       <c r="U96" s="20"/>
     </row>
     <row r="97" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="78">
+      <c r="B97" s="103">
         <v>45</v>
       </c>
-      <c r="C97" s="86" t="s">
+      <c r="C97" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="D97" s="87"/>
-      <c r="E97" s="84" t="s">
+      <c r="D97" s="98"/>
+      <c r="E97" s="101" t="s">
         <v>94</v>
       </c>
       <c r="F97" s="4" t="s">
@@ -6018,10 +6018,10 @@
       <c r="U97" s="20"/>
     </row>
     <row r="98" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="79"/>
-      <c r="C98" s="88"/>
-      <c r="D98" s="89"/>
-      <c r="E98" s="85"/>
+      <c r="B98" s="104"/>
+      <c r="C98" s="99"/>
+      <c r="D98" s="100"/>
+      <c r="E98" s="102"/>
       <c r="F98" s="4" t="s">
         <v>36</v>
       </c>
@@ -6042,14 +6042,14 @@
       <c r="U98" s="20"/>
     </row>
     <row r="99" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="78">
+      <c r="B99" s="103">
         <v>46</v>
       </c>
-      <c r="C99" s="86" t="s">
+      <c r="C99" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="D99" s="87"/>
-      <c r="E99" s="84" t="s">
+      <c r="D99" s="98"/>
+      <c r="E99" s="101" t="s">
         <v>114</v>
       </c>
       <c r="F99" s="4" t="s">
@@ -6072,10 +6072,10 @@
       <c r="U99" s="20"/>
     </row>
     <row r="100" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="79"/>
-      <c r="C100" s="88"/>
-      <c r="D100" s="89"/>
-      <c r="E100" s="85"/>
+      <c r="B100" s="104"/>
+      <c r="C100" s="99"/>
+      <c r="D100" s="100"/>
+      <c r="E100" s="102"/>
       <c r="F100" s="4" t="s">
         <v>36</v>
       </c>
@@ -6096,14 +6096,14 @@
       <c r="U100" s="20"/>
     </row>
     <row r="101" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="78">
+      <c r="B101" s="103">
         <v>47</v>
       </c>
-      <c r="C101" s="80" t="s">
+      <c r="C101" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="D101" s="81"/>
-      <c r="E101" s="84" t="s">
+      <c r="D101" s="91"/>
+      <c r="E101" s="101" t="s">
         <v>150</v>
       </c>
       <c r="F101" s="4" t="s">
@@ -6126,10 +6126,10 @@
       <c r="U101" s="20"/>
     </row>
     <row r="102" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="79"/>
-      <c r="C102" s="82"/>
-      <c r="D102" s="83"/>
-      <c r="E102" s="85"/>
+      <c r="B102" s="104"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="93"/>
+      <c r="E102" s="102"/>
       <c r="F102" s="4" t="s">
         <v>36</v>
       </c>
@@ -6150,14 +6150,14 @@
       <c r="U102" s="20"/>
     </row>
     <row r="103" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="78">
+      <c r="B103" s="103">
         <v>48</v>
       </c>
-      <c r="C103" s="80" t="s">
+      <c r="C103" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="D103" s="81"/>
-      <c r="E103" s="84" t="s">
+      <c r="D103" s="91"/>
+      <c r="E103" s="101" t="s">
         <v>153</v>
       </c>
       <c r="F103" s="4" t="s">
@@ -6180,10 +6180,10 @@
       <c r="U103" s="20"/>
     </row>
     <row r="104" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="79"/>
-      <c r="C104" s="82"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="85"/>
+      <c r="B104" s="104"/>
+      <c r="C104" s="92"/>
+      <c r="D104" s="93"/>
+      <c r="E104" s="102"/>
       <c r="F104" s="4" t="s">
         <v>36</v>
       </c>
@@ -6204,14 +6204,14 @@
       <c r="U104" s="20"/>
     </row>
     <row r="105" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="78">
+      <c r="B105" s="103">
         <v>49</v>
       </c>
-      <c r="C105" s="80" t="s">
+      <c r="C105" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="D105" s="81"/>
-      <c r="E105" s="84" t="s">
+      <c r="D105" s="91"/>
+      <c r="E105" s="101" t="s">
         <v>149</v>
       </c>
       <c r="F105" s="4" t="s">
@@ -6234,10 +6234,10 @@
       <c r="U105" s="20"/>
     </row>
     <row r="106" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="79"/>
-      <c r="C106" s="82"/>
-      <c r="D106" s="83"/>
-      <c r="E106" s="85"/>
+      <c r="B106" s="104"/>
+      <c r="C106" s="92"/>
+      <c r="D106" s="93"/>
+      <c r="E106" s="102"/>
       <c r="F106" s="4" t="s">
         <v>36</v>
       </c>
@@ -6258,14 +6258,14 @@
       <c r="U106" s="20"/>
     </row>
     <row r="107" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="78">
+      <c r="B107" s="103">
         <v>50</v>
       </c>
-      <c r="C107" s="80" t="s">
+      <c r="C107" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="D107" s="81"/>
-      <c r="E107" s="84" t="s">
+      <c r="D107" s="91"/>
+      <c r="E107" s="101" t="s">
         <v>154</v>
       </c>
       <c r="F107" s="4" t="s">
@@ -6288,10 +6288,10 @@
       <c r="U107" s="20"/>
     </row>
     <row r="108" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="79"/>
-      <c r="C108" s="82"/>
-      <c r="D108" s="83"/>
-      <c r="E108" s="85"/>
+      <c r="B108" s="104"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="93"/>
+      <c r="E108" s="102"/>
       <c r="F108" s="4" t="s">
         <v>36</v>
       </c>
@@ -6312,14 +6312,14 @@
       <c r="U108" s="20"/>
     </row>
     <row r="109" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="78">
+      <c r="B109" s="103">
         <v>51</v>
       </c>
-      <c r="C109" s="80" t="s">
+      <c r="C109" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="D109" s="81"/>
-      <c r="E109" s="84" t="s">
+      <c r="D109" s="91"/>
+      <c r="E109" s="101" t="s">
         <v>124</v>
       </c>
       <c r="F109" s="4" t="s">
@@ -6342,10 +6342,10 @@
       <c r="U109" s="20"/>
     </row>
     <row r="110" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="79"/>
-      <c r="C110" s="82"/>
-      <c r="D110" s="83"/>
-      <c r="E110" s="85"/>
+      <c r="B110" s="104"/>
+      <c r="C110" s="92"/>
+      <c r="D110" s="93"/>
+      <c r="E110" s="102"/>
       <c r="F110" s="4" t="s">
         <v>36</v>
       </c>
@@ -6365,14 +6365,14 @@
       <c r="U110" s="20"/>
     </row>
     <row r="111" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="78">
+      <c r="B111" s="103">
         <v>52</v>
       </c>
-      <c r="C111" s="80" t="s">
+      <c r="C111" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="D111" s="81"/>
-      <c r="E111" s="84" t="s">
+      <c r="D111" s="91"/>
+      <c r="E111" s="101" t="s">
         <v>152</v>
       </c>
       <c r="F111" s="4" t="s">
@@ -6395,10 +6395,10 @@
       <c r="U111" s="20"/>
     </row>
     <row r="112" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="79"/>
-      <c r="C112" s="82"/>
-      <c r="D112" s="83"/>
-      <c r="E112" s="85"/>
+      <c r="B112" s="104"/>
+      <c r="C112" s="92"/>
+      <c r="D112" s="93"/>
+      <c r="E112" s="102"/>
       <c r="F112" s="4" t="s">
         <v>36</v>
       </c>
@@ -6419,14 +6419,14 @@
       <c r="U112" s="20"/>
     </row>
     <row r="113" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="78">
+      <c r="B113" s="103">
         <v>53</v>
       </c>
-      <c r="C113" s="80" t="s">
+      <c r="C113" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="D113" s="81"/>
-      <c r="E113" s="84" t="s">
+      <c r="D113" s="91"/>
+      <c r="E113" s="101" t="s">
         <v>137</v>
       </c>
       <c r="F113" s="4" t="s">
@@ -6449,10 +6449,10 @@
       <c r="U113" s="20"/>
     </row>
     <row r="114" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="79"/>
-      <c r="C114" s="82"/>
-      <c r="D114" s="83"/>
-      <c r="E114" s="85"/>
+      <c r="B114" s="104"/>
+      <c r="C114" s="92"/>
+      <c r="D114" s="93"/>
+      <c r="E114" s="102"/>
       <c r="F114" s="4" t="s">
         <v>36</v>
       </c>
@@ -6473,14 +6473,14 @@
       <c r="U114" s="20"/>
     </row>
     <row r="115" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="78">
+      <c r="B115" s="103">
         <v>54</v>
       </c>
-      <c r="C115" s="80" t="s">
+      <c r="C115" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="D115" s="81"/>
-      <c r="E115" s="78" t="s">
+      <c r="D115" s="91"/>
+      <c r="E115" s="103" t="s">
         <v>72</v>
       </c>
       <c r="F115" s="4" t="s">
@@ -6503,10 +6503,10 @@
       <c r="U115" s="44"/>
     </row>
     <row r="116" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="79"/>
-      <c r="C116" s="82"/>
-      <c r="D116" s="83"/>
-      <c r="E116" s="79"/>
+      <c r="B116" s="104"/>
+      <c r="C116" s="92"/>
+      <c r="D116" s="93"/>
+      <c r="E116" s="104"/>
       <c r="F116" s="4" t="s">
         <v>36</v>
       </c>
@@ -6528,6 +6528,147 @@
     </row>
   </sheetData>
   <mergeCells count="165">
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="B2:U4"/>
     <mergeCell ref="E9:E10"/>
@@ -6552,147 +6693,6 @@
     <mergeCell ref="C11:D12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E15" r:id="rId1"/>

--- a/Documentación/CRONOGRAMA DEL PROYECTO.xlsx
+++ b/Documentación/CRONOGRAMA DEL PROYECTO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arely\Desktop\Cuatri 7\Proyecto\Nueva carpeta\Equipo-5\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arely\Desktop\Cuatri 7\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="183">
   <si>
     <t>Grupo:</t>
   </si>
@@ -300,9 +300,6 @@
     <t>Realizar el Story board</t>
   </si>
   <si>
-    <t>jpg</t>
-  </si>
-  <si>
     <t>Tomar fotos a los textiles</t>
   </si>
   <si>
@@ -327,12 +324,6 @@
     <t>Elaborar un sitio de comercio electrónico utilizando las aplicaciones web necesarias.</t>
   </si>
   <si>
-    <t>Elaborar los formatos de control de proyecto</t>
-  </si>
-  <si>
-    <t>.pdf</t>
-  </si>
-  <si>
     <t>Registro en línea en github y realizar carpetas (cronograma de software)</t>
   </si>
   <si>
@@ -357,12 +348,6 @@
     <t>joomla</t>
   </si>
   <si>
-    <t>.fla</t>
-  </si>
-  <si>
-    <t>.mp3</t>
-  </si>
-  <si>
     <t>"Implementación de e-commerce"</t>
   </si>
   <si>
@@ -405,9 +390,6 @@
     <t>Elaboración de bocetos de personajes, escenas 1 y 2 que también fueron hechos en el programa flash, para llevar a cabo la actividad Story board. Arely y Julieta realizaron el guión (Julieta escribió el guión en la herramienta word, realizó el boceto de la escena 1 y 2 , los pasó al programa flash, Arely le dictaba lo que se imaginaba para la historia y asignó las actividades a cada integrante del equipo). Ricardo y Lorena imaginaron a los personajes principales y lo plasmaron mediante un dibujo (Lorena dibujo a una mujer recién casada, joven, elaboró la escena 2  en boceto y Ricardo dibujo a un hombre joven). Rosalía dibujo al joven que da el servicio de paquetería.</t>
   </si>
   <si>
-    <t>Elaboración de bocetos de las escenas 3, 4 y 5 las cuales se hicieron también mediante la herramienta flash (Ricardo elaboró la escena 4, Rosalía la escena 3 y Julieta la escena 5). Lorena elaboró un boceto de como irían los letreros de publicidad de los artículos. También se realizaron los bocetos del story board (Ricardo elaboro la parte 1, Lorena parte 4, Julieta agregó movimientos, Rosalía parte 2 y 3). Arely Realizó reviso que todo estuviera en orden y llevo el control de que la actividad estuviera entregada en tiempo y forma.</t>
-  </si>
-  <si>
     <t>boceto_personaje_2.jpg ; Novia.fla;boceto_escena_2.jpg;Letreros_boceto.jpg; escena2.fla; casa llena_2.fla; casa llena a dibujo.jpg; casa vaciaa dibujo.jpg; casa vacia_1.fla; escenaboceto_1.fl; escena boceto_1.jpg; Guión.docx; Boceto_Escena_4.jpg; Boceto-Novio0002.jpg; Novio.fla; IMG_201510285_100717.jpg; Personaje_3.fla</t>
   </si>
   <si>
@@ -450,9 +432,6 @@
     <t>Elaborar la descripción del área de muebles</t>
   </si>
   <si>
-    <t>Elaborar la descripción del área de textiles</t>
-  </si>
-  <si>
     <t>Elaborar la descripción del área de camas</t>
   </si>
   <si>
@@ -477,9 +456,6 @@
     <t>Elaborar las características  del área de electrodomésticos</t>
   </si>
   <si>
-    <t>.docx</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=0B7X_62_bgPZoc0hpRGFTWktQcnM</t>
   </si>
   <si>
@@ -552,9 +528,6 @@
     <t>https://drive.google.com/open?id=0B3SGTNyArm9VVUZsTGVFY3JsUEU</t>
   </si>
   <si>
-    <t>Colchones</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=0B7X_62_bgPZoQ3dOdnBJMGp2TU0</t>
   </si>
   <si>
@@ -640,13 +613,85 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1-EwaTRqYKX086g38e7I5aNBK7nWsMjPMuyT0EnQqJ2U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Características_vajillas.docs; Equipo #5 TICMCE Dz_Bien.fla; Fotos-Colchones; Fotos-Cocina;Fotos-Vajillas; Instalacion-joomla; terminos y condiciones.docx; sabana-puntero-olla.fla; Características_vajillas.docs; Caracteristicas_Cocina.docs; Story board y guión.docx </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0ByEIn7aXjVJgY2FHLXdaUDh5Y1U</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0ByEIn7aXjVJgd0dBWGtwdHNVbUU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1YPxqbcD57GmN6GSHG8EKkPVkD8iqUGxRqDyP0mOAwUs</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1QLEBJh5VZtnBscOyekCWyA0r-rSO-gmkVx1igvtYlC4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13hfyZ--zCYkJvkDoHE2K-qGnXefC8LoR36nKvmZie5w</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1PuXB1V4SmbDJ8ignjahhu0INOIdRbIYjrtetvUR5Qq0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1JJFuV9qMtuHQvNop_gCgEGNR2AELQzBNL-cz8AVUtF4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0ByEIn7aXjVJgQVNiUURCVkpLeFU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1kGecuZ8MydROqv49ry1FHxXAKwWrBaHlhah4FtBFEHQ</t>
+  </si>
+  <si>
+    <t>Elaborar la descripción del área de cobertores</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1OTr0sGOnWNLg8jLqKEC5nRg3z2NYsIh_s0F59iogIQk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaborar el guión, story board del segundo y tecer proceso </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0ByEIn7aXjVJgaWhiSDFpbmhHLXM</t>
+  </si>
+  <si>
+    <t>Elaboración de bocetos de las escenas 3, 4 y 5 las cuales se hicieron también mediante la herramienta flash (Ricardo elaboró la escena 4, Rosalía la escena 3 y Julieta la escena 5). Lorena elaboró un boceto de como irían los letreros de publicidad de los artículos. También se realizaron los bocetos del story board (Ricardo elaboro la parte 1, Lorena parte 4, Julieta agregó movimientos, Rosalía parte 2 y 3). Arely Realizó revisó que todo estuviera en orden y llevó el control de que la actividad estuviera entregada en tiempo y forma.</t>
+  </si>
+  <si>
+    <t>Elaboración del primer proceso (de compra) Arely realizó los muebles, anexo audio y los punteros y Ricardo realizó la computadora, fondo giratorio, términos y condiciones. Impresiones de pantalla de la instalación y descarga del gestor de contenido Joomla lo realizó Julieta, guión del primer proceso lo realizó Lorena, categorías y artículos mediante Joomla fue elaborado por Julieta, toma de fotografías del área de colchones, productos de cocina, vajillas, lo realizó Lorena y Ricardo. Lorena realizaron las características del área de cocina, colchones y Rosalía realizo la descripción del área de cocina, colchones y Ricardo realizó las características y descripción de vajillas.</t>
+  </si>
+  <si>
+    <t>Elaboración de la redacción de evaluación de resultados lo realizó Ricardo, resumen del proyecto en español e inglés fue elaborado por Rosalía, toma de fotografías de cobertores, características de cobertores lo realizó Ricardo y descripción de cobertores lo elaboró Lorena, actualización de la fotografías de los muebles fue elaborado por Lorena, elaboración de submenús en Joomla fue realizado por Julieta, investigación de costos por paquete del proyecto lo realizó Rosalía, conclusión del proyecto elaboró Rosalía, elaboración de electrodomésticos y el personaje del vendedor mediante la herramienta Flash realizado por Julieta y Arely.</t>
+  </si>
+  <si>
+    <t>EVALUACIÓN_DE_RESULTADOS.docx; Resume_de_Documentación; Summary.docx; Fotos-Cobertores; Características_Cobertores.docs; Descripcion_Cobertores.docs; Fotos-Muebles; Gastos.docx; Conclusión.docx;electro-vendedor.fla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaboración del movimiento de las llantas del auto mediante Flash lo realizó Julieta, movimientos naturales de los personajes de Oswaldo lo realizó Ricardo y los movimientos de Laura los realizó Lorena, elaborar los fonemas del narrador (vendedor) elaboró Arely , elaboración del manual de instalación y descarga de Joomla realizó Julieta, tabla de roles realizado por Rosalía, elaboración del menú desplegable de baterías mediante Joomla realizó Julieta, descripción de colchones lo redacto Ricardo y características de las colchones realizó Lorena, elaboración de los ajustes de las fotos de los cobertores en Joomla lo corrigió Julieta. </t>
+  </si>
+  <si>
+    <t>auto.fla; Equipo #5 TICMCE Dz_Bien.fla; Proceso 1y2.fla;Instalacion_Joomla.docx; roles.docx; Descripcion_Colchones.docs; Caracteristicas_Colchones.docs; fonemas vendedor.fla; Roles.docx</t>
+  </si>
+  <si>
+    <t>Nos reunimos para la redacción del audio para el narrador, así mismo se asignaron los dos procesos faltantes (Forma de pago y registro de usuario). Cada integrante aporto para la redacción, Arely escribió la redacción, Ricardo llevó el lapicero y Rosalía llevó una libreta. También se realizó la elaboración de los procesos y se corrigió el primer proceso, Ricardo elaboró el segundo proceso, Lorena realizó el tercer proceso y Arely corrigió el primer proceso. Julieta se encargó de elaborar los módulos de la empresa, terminación de los detalles y subió los archivos de flash mediante la herramienta Joomla y Rosalía se encargó de buscar y descargar las distintos sonidos para los procesos (sonido de fondo, teclado de computadora y clic), también elaboró la corrección del modelo entidad-relación. Elaboración de la actualización del story board junto con los dos procesos que faltan y añadió el audio a los procesos de Flash, lo realizó Arely.</t>
+  </si>
+  <si>
+    <t>MINUTA_231115.pdf; Story board y guón2.docx; registro.fla; Forma_de_pago.fla; Procesos FLASH; soni 2.wav; Audio 2.wav; Audio-1.wav; audio registro.wav; Pagoaudio.wav; Audio y sonidos</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0ByEIn7aXjVJgbDNJamRCcHp6X3c</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=0ByEIn7aXjVJgc004eldrSXhKb1k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,12 +782,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1049,7 +1088,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1149,16 +1188,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1226,6 +1266,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1255,75 +1358,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1334,8 +1368,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9BEBF3"/>
       <color rgb="FF006699"/>
-      <color rgb="FF9BEBF3"/>
       <color rgb="FF17AFBF"/>
       <color rgb="FF9CE7F6"/>
       <color rgb="FF3496D8"/>
@@ -1913,141 +1947,141 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
     </row>
     <row r="4" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="65"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
+      <c r="D7" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="57">
         <v>5</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
+      <c r="D11" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" s="26"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" s="28"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
@@ -2142,8 +2176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K111"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,40 +2195,40 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="75"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="77"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="78"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
@@ -2242,10 +2276,10 @@
         <v>42</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>46</v>
@@ -2266,10 +2300,10 @@
         <v>42</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>48</v>
@@ -2290,10 +2324,10 @@
         <v>42</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>50</v>
@@ -2314,10 +2348,10 @@
         <v>42</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>47</v>
@@ -2338,10 +2372,10 @@
         <v>42</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>45</v>
@@ -2362,10 +2396,10 @@
         <v>42</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>46</v>
@@ -2386,10 +2420,10 @@
         <v>42</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>48</v>
@@ -2410,10 +2444,10 @@
         <v>42</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>45</v>
@@ -2434,68 +2468,114 @@
         <v>42</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>50</v>
       </c>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="2:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="302.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>10</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="19"/>
+      <c r="C18" s="17">
+        <v>42310</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="280.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>11</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="19"/>
+      <c r="C19" s="17">
+        <v>42317</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="287.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>12</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="19"/>
+      <c r="C20" s="17">
+        <v>42324</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="2:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="384.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>13</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="19"/>
+      <c r="C21" s="17">
+        <v>42331</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="2:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9">
-        <v>14</v>
-      </c>
+      <c r="B22" s="9"/>
       <c r="C22" s="17"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -2505,9 +2585,7 @@
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9">
-        <v>15</v>
-      </c>
+      <c r="B23" s="9"/>
       <c r="C23" s="17"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -3441,7 +3519,7 @@
   <dimension ref="A1:W116"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="V59" sqref="V59"/>
+      <selection activeCell="W59" sqref="W59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3457,80 +3535,80 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="72"/>
     </row>
     <row r="3" spans="2:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="74"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="75"/>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="75"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="77"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="78"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
@@ -3549,19 +3627,19 @@
       <c r="R6" s="30"/>
       <c r="S6" s="2"/>
       <c r="T6" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -3583,43 +3661,43 @@
       <c r="J8" s="34"/>
     </row>
     <row r="9" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="80" t="s">
+      <c r="D9" s="105"/>
+      <c r="E9" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="78" t="s">
+      <c r="F9" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="87"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="109"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="81"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="101"/>
       <c r="G10" s="42">
         <v>1</v>
       </c>
@@ -3667,15 +3745,15 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="96">
+      <c r="B11" s="99">
         <v>1</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="91"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="94" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>37</v>
@@ -3697,10 +3775,10 @@
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="96"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="95"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="4" t="s">
         <v>36</v>
       </c>
@@ -3721,15 +3799,15 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="96">
+      <c r="B13" s="99">
         <v>2</v>
       </c>
-      <c r="C13" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="91"/>
+      <c r="C13" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="82"/>
       <c r="E13" s="94" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>37</v>
@@ -3751,10 +3829,10 @@
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="96"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="95"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="93"/>
       <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3775,15 +3853,15 @@
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="96">
+      <c r="B15" s="99">
         <v>3</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="91"/>
+      <c r="D15" s="82"/>
       <c r="E15" s="94" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>37</v>
@@ -3805,10 +3883,10 @@
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="96"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="95"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="93"/>
       <c r="F16" s="4" t="s">
         <v>36</v>
       </c>
@@ -3829,15 +3907,15 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="96">
+      <c r="B17" s="99">
         <v>4</v>
       </c>
-      <c r="C17" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="98"/>
-      <c r="E17" s="88" t="s">
-        <v>72</v>
+      <c r="C17" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="89"/>
+      <c r="E17" s="92" t="s">
+        <v>69</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>37</v>
@@ -3858,10 +3936,10 @@
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="96"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="89"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="4" t="s">
         <v>36</v>
       </c>
@@ -3874,23 +3952,23 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="20"/>
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="96">
+      <c r="B19" s="99">
         <v>5</v>
       </c>
-      <c r="C19" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="98"/>
+      <c r="C19" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="89"/>
       <c r="E19" s="94" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>37</v>
@@ -3912,10 +3990,10 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="96"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="95"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="4" t="s">
         <v>36</v>
       </c>
@@ -3936,15 +4014,15 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="96">
+      <c r="B21" s="99">
         <v>6</v>
       </c>
-      <c r="C21" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="98"/>
-      <c r="E21" s="101" t="s">
-        <v>114</v>
+      <c r="C21" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="89"/>
+      <c r="E21" s="87" t="s">
+        <v>106</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>37</v>
@@ -3966,10 +4044,10 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="96"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="102"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="80"/>
       <c r="F22" s="4" t="s">
         <v>36</v>
       </c>
@@ -3990,15 +4068,15 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="96">
+      <c r="B23" s="99">
         <v>7</v>
       </c>
-      <c r="C23" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="98"/>
-      <c r="E23" s="88" t="s">
-        <v>54</v>
+      <c r="C23" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="89"/>
+      <c r="E23" s="94" t="s">
+        <v>160</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>37</v>
@@ -4020,10 +4098,10 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="96"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="89"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="4" t="s">
         <v>36</v>
       </c>
@@ -4044,15 +4122,15 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="96">
+      <c r="B25" s="99">
         <v>8</v>
       </c>
-      <c r="C25" s="97" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="98"/>
+      <c r="C25" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="89"/>
       <c r="E25" s="94" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>37</v>
@@ -4074,10 +4152,10 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="96"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="95"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="93"/>
       <c r="F26" s="4" t="s">
         <v>36</v>
       </c>
@@ -4098,15 +4176,15 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="96">
+      <c r="B27" s="99">
         <v>9</v>
       </c>
-      <c r="C27" s="97" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="98"/>
+      <c r="C27" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="89"/>
       <c r="E27" s="94" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>37</v>
@@ -4127,10 +4205,10 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="96"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="95"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="93"/>
       <c r="F28" s="4" t="s">
         <v>36</v>
       </c>
@@ -4151,15 +4229,15 @@
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="96">
+      <c r="B29" s="99">
         <v>10</v>
       </c>
-      <c r="C29" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="91"/>
-      <c r="E29" s="88" t="s">
-        <v>73</v>
+      <c r="C29" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="82"/>
+      <c r="E29" s="94" t="s">
+        <v>181</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>37</v>
@@ -4180,10 +4258,10 @@
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="96"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="89"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="93"/>
       <c r="F30" s="4" t="s">
         <v>36</v>
       </c>
@@ -4196,23 +4274,23 @@
       <c r="M30" s="20"/>
       <c r="N30" s="45"/>
       <c r="O30" s="45"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="96">
+      <c r="B31" s="99">
         <v>12</v>
       </c>
-      <c r="C31" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="98"/>
-      <c r="E31" s="88" t="s">
-        <v>73</v>
+      <c r="C31" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="89"/>
+      <c r="E31" s="94" t="s">
+        <v>181</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>37</v>
@@ -4234,10 +4312,10 @@
       <c r="U31" s="20"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="96"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="89"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="93"/>
       <c r="F32" s="4" t="s">
         <v>36</v>
       </c>
@@ -4250,23 +4328,23 @@
       <c r="M32" s="20"/>
       <c r="N32" s="45"/>
       <c r="O32" s="45"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="88">
+      <c r="B33" s="92">
         <v>13</v>
       </c>
-      <c r="C33" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="98"/>
+      <c r="C33" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="89"/>
       <c r="E33" s="94" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>37</v>
@@ -4288,10 +4366,10 @@
       <c r="U33" s="4"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="89"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="95"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="93"/>
       <c r="F34" s="4" t="s">
         <v>36</v>
       </c>
@@ -4312,15 +4390,15 @@
       <c r="U34" s="4"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="88">
+      <c r="B35" s="92">
         <v>14</v>
       </c>
-      <c r="C35" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="98"/>
-      <c r="E35" s="88" t="s">
-        <v>74</v>
+      <c r="C35" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="89"/>
+      <c r="E35" s="94" t="s">
+        <v>167</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>37</v>
@@ -4341,10 +4419,10 @@
       <c r="U35" s="4"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="89"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="89"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="93"/>
       <c r="F36" s="4" t="s">
         <v>36</v>
       </c>
@@ -4358,22 +4436,22 @@
       <c r="N36" s="20"/>
       <c r="O36" s="45"/>
       <c r="P36" s="45"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="88">
+      <c r="B37" s="92">
         <v>15</v>
       </c>
-      <c r="C37" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="91"/>
+      <c r="C37" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="82"/>
       <c r="E37" s="94" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>37</v>
@@ -4392,10 +4470,10 @@
       <c r="U37" s="4"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B38" s="89"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="95"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="93"/>
       <c r="F38" s="4" t="s">
         <v>36</v>
       </c>
@@ -4416,15 +4494,15 @@
       <c r="U38" s="4"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B39" s="88">
+      <c r="B39" s="92">
         <v>16</v>
       </c>
-      <c r="C39" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="98"/>
+      <c r="C39" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="89"/>
       <c r="E39" s="94" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>37</v>
@@ -4446,10 +4524,10 @@
       <c r="U39" s="38"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="89"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="95"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="93"/>
       <c r="F40" s="4" t="s">
         <v>36</v>
       </c>
@@ -4470,15 +4548,15 @@
       <c r="U40" s="4"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B41" s="88">
+      <c r="B41" s="92">
         <v>17</v>
       </c>
-      <c r="C41" s="97" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="98"/>
+      <c r="C41" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="89"/>
       <c r="E41" s="94" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>37</v>
@@ -4500,10 +4578,10 @@
       <c r="U41" s="4"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B42" s="89"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="95"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="93"/>
       <c r="F42" s="4" t="s">
         <v>36</v>
       </c>
@@ -4524,15 +4602,15 @@
       <c r="U42" s="4"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B43" s="88">
+      <c r="B43" s="92">
         <v>18</v>
       </c>
-      <c r="C43" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="91"/>
+      <c r="C43" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="82"/>
       <c r="E43" s="94" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>37</v>
@@ -4554,10 +4632,10 @@
       <c r="U43" s="4"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B44" s="89"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="95"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="93"/>
       <c r="F44" s="4" t="s">
         <v>36</v>
       </c>
@@ -4567,26 +4645,26 @@
       <c r="J44" s="4"/>
       <c r="K44" s="20"/>
       <c r="L44" s="45"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="45"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B45" s="88">
+      <c r="B45" s="92">
         <v>19</v>
       </c>
-      <c r="C45" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="98"/>
+      <c r="C45" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="89"/>
       <c r="E45" s="94" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F45" s="38" t="s">
         <v>37</v>
@@ -4608,10 +4686,10 @@
       <c r="U45" s="38"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B46" s="89"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="95"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="93"/>
       <c r="F46" s="4" t="s">
         <v>36</v>
       </c>
@@ -4621,26 +4699,26 @@
       <c r="J46" s="4"/>
       <c r="K46" s="20"/>
       <c r="L46" s="45"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="45"/>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B47" s="88">
+      <c r="B47" s="92">
         <v>20</v>
       </c>
-      <c r="C47" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" s="91"/>
+      <c r="C47" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="82"/>
       <c r="E47" s="94" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>37</v>
@@ -4662,10 +4740,10 @@
       <c r="U47" s="4"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B48" s="89"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="95"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="93"/>
       <c r="F48" s="4" t="s">
         <v>36</v>
       </c>
@@ -4675,26 +4753,26 @@
       <c r="J48" s="4"/>
       <c r="K48" s="20"/>
       <c r="L48" s="45"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="45"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B49" s="88">
+      <c r="B49" s="92">
         <v>21</v>
       </c>
-      <c r="C49" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="91"/>
+      <c r="C49" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="82"/>
       <c r="E49" s="94" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>37</v>
@@ -4716,10 +4794,10 @@
       <c r="U49" s="4"/>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B50" s="89"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="95"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="93"/>
       <c r="F50" s="4" t="s">
         <v>36</v>
       </c>
@@ -4729,26 +4807,26 @@
       <c r="J50" s="4"/>
       <c r="K50" s="20"/>
       <c r="L50" s="45"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="45"/>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B51" s="88">
+      <c r="B51" s="92">
         <v>22</v>
       </c>
-      <c r="C51" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" s="91"/>
+      <c r="C51" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="82"/>
       <c r="E51" s="94" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>37</v>
@@ -4770,10 +4848,10 @@
       <c r="U51" s="4"/>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B52" s="89"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="95"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="93"/>
       <c r="F52" s="4" t="s">
         <v>36</v>
       </c>
@@ -4783,26 +4861,26 @@
       <c r="J52" s="4"/>
       <c r="K52" s="20"/>
       <c r="L52" s="45"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="20"/>
       <c r="U52" s="4"/>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B53" s="88">
+      <c r="B53" s="92">
         <v>23</v>
       </c>
-      <c r="C53" s="90" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="91"/>
+      <c r="C53" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="82"/>
       <c r="E53" s="94" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>37</v>
@@ -4824,10 +4902,10 @@
       <c r="U53" s="4"/>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B54" s="89"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="95"/>
+      <c r="B54" s="93"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="93"/>
       <c r="F54" s="4" t="s">
         <v>36</v>
       </c>
@@ -4848,15 +4926,15 @@
       <c r="U54" s="4"/>
     </row>
     <row r="55" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="88">
+      <c r="B55" s="92">
         <v>24</v>
       </c>
-      <c r="C55" s="90" t="s">
-        <v>165</v>
-      </c>
-      <c r="D55" s="91"/>
+      <c r="C55" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="82"/>
       <c r="E55" s="94" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>37</v>
@@ -4878,10 +4956,10 @@
       <c r="U55" s="4"/>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B56" s="89"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="95"/>
+      <c r="B56" s="93"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="93"/>
       <c r="F56" s="4" t="s">
         <v>36</v>
       </c>
@@ -4902,15 +4980,15 @@
       <c r="U56" s="4"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B57" s="88">
+      <c r="B57" s="92">
         <v>25</v>
       </c>
-      <c r="C57" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="91"/>
-      <c r="E57" s="88" t="s">
-        <v>64</v>
+      <c r="C57" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="82"/>
+      <c r="E57" s="94" t="s">
+        <v>172</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>37</v>
@@ -4932,10 +5010,10 @@
       <c r="U57" s="44"/>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B58" s="89"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="93"/>
-      <c r="E58" s="89"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="93"/>
       <c r="F58" s="4" t="s">
         <v>36</v>
       </c>
@@ -4950,21 +5028,21 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
+      <c r="R58" s="45"/>
+      <c r="S58" s="45"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B59" s="88">
+      <c r="B59" s="92">
         <v>26</v>
       </c>
-      <c r="C59" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="D59" s="91"/>
-      <c r="E59" s="88" t="s">
-        <v>64</v>
+      <c r="C59" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="82"/>
+      <c r="E59" s="94" t="s">
+        <v>182</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>37</v>
@@ -4986,10 +5064,10 @@
       <c r="U59" s="44"/>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B60" s="89"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="89"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="93"/>
       <c r="F60" s="4" t="s">
         <v>36</v>
       </c>
@@ -5010,15 +5088,15 @@
       <c r="U60" s="4"/>
     </row>
     <row r="61" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="88">
+      <c r="B61" s="92">
         <v>27</v>
       </c>
-      <c r="C61" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" s="91"/>
-      <c r="E61" s="88" t="s">
+      <c r="C61" s="81" t="s">
         <v>64</v>
+      </c>
+      <c r="D61" s="82"/>
+      <c r="E61" s="94" t="s">
+        <v>161</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>37</v>
@@ -5040,10 +5118,10 @@
       <c r="U61" s="44"/>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B62" s="89"/>
-      <c r="C62" s="92"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="89"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="93"/>
       <c r="F62" s="4" t="s">
         <v>36</v>
       </c>
@@ -5056,23 +5134,23 @@
       <c r="M62" s="20"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="45"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B63" s="88">
+      <c r="B63" s="92">
         <v>28</v>
       </c>
-      <c r="C63" s="90" t="s">
-        <v>104</v>
-      </c>
-      <c r="D63" s="91"/>
-      <c r="E63" s="105" t="s">
-        <v>113</v>
+      <c r="C63" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="82"/>
+      <c r="E63" s="94" t="s">
+        <v>170</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>37</v>
@@ -5094,10 +5172,10 @@
       <c r="U63" s="4"/>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B64" s="89"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="89"/>
+      <c r="B64" s="93"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="93"/>
       <c r="F64" s="4" t="s">
         <v>36</v>
       </c>
@@ -5107,7 +5185,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="20"/>
       <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
+      <c r="M64" s="45"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
@@ -5118,15 +5196,15 @@
       <c r="U64" s="4"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B65" s="88">
+      <c r="B65" s="92">
         <v>29</v>
       </c>
-      <c r="C65" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="91"/>
+      <c r="C65" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" s="82"/>
       <c r="E65" s="94" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>37</v>
@@ -5148,10 +5226,10 @@
       <c r="U65" s="20"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B66" s="89"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="93"/>
-      <c r="E66" s="95"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="93"/>
       <c r="F66" s="4" t="s">
         <v>36</v>
       </c>
@@ -5172,15 +5250,15 @@
       <c r="U66" s="4"/>
     </row>
     <row r="67" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="88">
+      <c r="B67" s="92">
         <v>30</v>
       </c>
-      <c r="C67" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="91"/>
+      <c r="C67" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="82"/>
       <c r="E67" s="94" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>37</v>
@@ -5202,10 +5280,10 @@
       <c r="U67" s="20"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B68" s="89"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="93"/>
-      <c r="E68" s="95"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="93"/>
       <c r="F68" s="4" t="s">
         <v>36</v>
       </c>
@@ -5227,15 +5305,15 @@
     </row>
     <row r="69" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="50"/>
-      <c r="B69" s="103">
+      <c r="B69" s="79">
         <v>31</v>
       </c>
-      <c r="C69" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="D69" s="107"/>
-      <c r="E69" s="88" t="s">
-        <v>113</v>
+      <c r="C69" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" s="96"/>
+      <c r="E69" s="94" t="s">
+        <v>166</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>37</v>
@@ -5258,10 +5336,10 @@
     </row>
     <row r="70" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="50"/>
-      <c r="B70" s="104"/>
-      <c r="C70" s="108"/>
-      <c r="D70" s="109"/>
-      <c r="E70" s="89"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="97"/>
+      <c r="D70" s="98"/>
+      <c r="E70" s="93"/>
       <c r="F70" s="4" t="s">
         <v>36</v>
       </c>
@@ -5273,8 +5351,8 @@
       <c r="L70" s="51"/>
       <c r="M70" s="51"/>
       <c r="N70" s="51"/>
-      <c r="O70" s="51"/>
-      <c r="P70" s="51"/>
+      <c r="O70" s="54"/>
+      <c r="P70" s="54"/>
       <c r="Q70" s="51"/>
       <c r="R70" s="51"/>
       <c r="S70" s="51"/>
@@ -5282,15 +5360,15 @@
       <c r="U70" s="51"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B71" s="88">
+      <c r="B71" s="92">
         <v>32</v>
       </c>
-      <c r="C71" s="90" t="s">
-        <v>106</v>
-      </c>
-      <c r="D71" s="91"/>
-      <c r="E71" s="88" t="s">
-        <v>113</v>
+      <c r="C71" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="82"/>
+      <c r="E71" s="94" t="s">
+        <v>163</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>37</v>
@@ -5312,10 +5390,10 @@
       <c r="U71" s="4"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B72" s="89"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="93"/>
-      <c r="E72" s="89"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="93"/>
       <c r="F72" s="4" t="s">
         <v>36</v>
       </c>
@@ -5328,23 +5406,23 @@
       <c r="M72" s="20"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
+      <c r="P72" s="45"/>
+      <c r="Q72" s="45"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B73" s="103">
+      <c r="B73" s="79">
         <v>33</v>
       </c>
-      <c r="C73" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="D73" s="91"/>
+      <c r="C73" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="82"/>
       <c r="E73" s="94" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>37</v>
@@ -5366,10 +5444,10 @@
       <c r="U73" s="4"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B74" s="104"/>
-      <c r="C74" s="92"/>
-      <c r="D74" s="93"/>
-      <c r="E74" s="95"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="93"/>
       <c r="F74" s="4" t="s">
         <v>36</v>
       </c>
@@ -5390,15 +5468,15 @@
       <c r="U74" s="4"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B75" s="103">
+      <c r="B75" s="79">
         <v>34</v>
       </c>
-      <c r="C75" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="D75" s="91"/>
-      <c r="E75" s="103" t="s">
-        <v>113</v>
+      <c r="C75" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" s="82"/>
+      <c r="E75" s="87" t="s">
+        <v>162</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>37</v>
@@ -5420,10 +5498,10 @@
       <c r="U75" s="20"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B76" s="104"/>
-      <c r="C76" s="92"/>
-      <c r="D76" s="93"/>
-      <c r="E76" s="104"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="80"/>
       <c r="F76" s="4" t="s">
         <v>36</v>
       </c>
@@ -5436,23 +5514,23 @@
       <c r="M76" s="20"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
+      <c r="P76" s="45"/>
+      <c r="Q76" s="45"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B77" s="103">
+      <c r="B77" s="79">
         <v>35</v>
       </c>
-      <c r="C77" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="D77" s="91"/>
-      <c r="E77" s="88" t="s">
-        <v>113</v>
+      <c r="C77" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="82"/>
+      <c r="E77" s="94" t="s">
+        <v>165</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>37</v>
@@ -5474,10 +5552,10 @@
       <c r="U77" s="4"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B78" s="104"/>
-      <c r="C78" s="92"/>
-      <c r="D78" s="93"/>
-      <c r="E78" s="89"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="93"/>
       <c r="F78" s="4" t="s">
         <v>36</v>
       </c>
@@ -5490,23 +5568,23 @@
       <c r="M78" s="20"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
+      <c r="P78" s="45"/>
+      <c r="Q78" s="45"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B79" s="103">
+      <c r="B79" s="79">
         <v>36</v>
       </c>
-      <c r="C79" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="D79" s="91"/>
-      <c r="E79" s="88" t="s">
-        <v>113</v>
+      <c r="C79" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" s="82"/>
+      <c r="E79" s="94" t="s">
+        <v>164</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>37</v>
@@ -5528,10 +5606,10 @@
       <c r="U79" s="4"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B80" s="104"/>
-      <c r="C80" s="92"/>
-      <c r="D80" s="93"/>
-      <c r="E80" s="89"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="93"/>
       <c r="F80" s="4" t="s">
         <v>36</v>
       </c>
@@ -5545,22 +5623,22 @@
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
+      <c r="Q80" s="45"/>
+      <c r="R80" s="45"/>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
     </row>
     <row r="81" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B81" s="88">
+      <c r="B81" s="92">
         <v>37</v>
       </c>
-      <c r="C81" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="D81" s="91"/>
+      <c r="C81" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" s="82"/>
       <c r="E81" s="94" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>37</v>
@@ -5582,10 +5660,10 @@
       <c r="U81" s="4"/>
     </row>
     <row r="82" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B82" s="89"/>
-      <c r="C82" s="92"/>
-      <c r="D82" s="93"/>
-      <c r="E82" s="95"/>
+      <c r="B82" s="93"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="93"/>
       <c r="F82" s="4" t="s">
         <v>36</v>
       </c>
@@ -5606,15 +5684,15 @@
       <c r="U82" s="4"/>
     </row>
     <row r="83" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B83" s="103">
+      <c r="B83" s="79">
         <v>38</v>
       </c>
-      <c r="C83" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="D83" s="91"/>
-      <c r="E83" s="88" t="s">
-        <v>113</v>
+      <c r="C83" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="D83" s="82"/>
+      <c r="E83" s="94" t="s">
+        <v>168</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>37</v>
@@ -5636,10 +5714,10 @@
       <c r="U83" s="4"/>
     </row>
     <row r="84" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B84" s="104"/>
-      <c r="C84" s="92"/>
-      <c r="D84" s="93"/>
-      <c r="E84" s="89"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="93"/>
       <c r="F84" s="4" t="s">
         <v>36</v>
       </c>
@@ -5653,22 +5731,22 @@
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
+      <c r="Q84" s="45"/>
+      <c r="R84" s="45"/>
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
     </row>
     <row r="85" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="103">
+      <c r="B85" s="79">
         <v>39</v>
       </c>
-      <c r="C85" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="D85" s="91"/>
-      <c r="E85" s="101" t="s">
-        <v>134</v>
+      <c r="C85" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="D85" s="82"/>
+      <c r="E85" s="87" t="s">
+        <v>126</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>37</v>
@@ -5690,10 +5768,10 @@
       <c r="U85" s="20"/>
     </row>
     <row r="86" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B86" s="104"/>
-      <c r="C86" s="92"/>
-      <c r="D86" s="93"/>
-      <c r="E86" s="102"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="80"/>
       <c r="F86" s="4" t="s">
         <v>36</v>
       </c>
@@ -5714,15 +5792,15 @@
       <c r="U86" s="20"/>
     </row>
     <row r="87" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="103">
+      <c r="B87" s="79">
         <v>40</v>
       </c>
-      <c r="C87" s="90" t="s">
-        <v>116</v>
-      </c>
-      <c r="D87" s="91"/>
-      <c r="E87" s="52" t="s">
-        <v>141</v>
+      <c r="C87" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="D87" s="82"/>
+      <c r="E87" s="53" t="s">
+        <v>132</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>37</v>
@@ -5744,11 +5822,11 @@
       <c r="U87" s="20"/>
     </row>
     <row r="88" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="104"/>
-      <c r="C88" s="92"/>
-      <c r="D88" s="93"/>
-      <c r="E88" s="53" t="s">
-        <v>142</v>
+      <c r="B88" s="80"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="55" t="s">
+        <v>133</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>36</v>
@@ -5770,15 +5848,15 @@
       <c r="U88" s="20"/>
     </row>
     <row r="89" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="103">
+      <c r="B89" s="79">
         <v>41</v>
       </c>
-      <c r="C89" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="D89" s="91"/>
-      <c r="E89" s="54" t="s">
-        <v>134</v>
+      <c r="C89" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="D89" s="82"/>
+      <c r="E89" s="52" t="s">
+        <v>126</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>37</v>
@@ -5800,11 +5878,11 @@
       <c r="U89" s="20"/>
     </row>
     <row r="90" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="104"/>
-      <c r="C90" s="92"/>
-      <c r="D90" s="93"/>
-      <c r="E90" s="55" t="s">
-        <v>143</v>
+      <c r="B90" s="80"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="56" t="s">
+        <v>134</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>36</v>
@@ -5826,15 +5904,15 @@
       <c r="U90" s="20"/>
     </row>
     <row r="91" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="103">
+      <c r="B91" s="79">
         <v>42</v>
       </c>
-      <c r="C91" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="D91" s="91"/>
-      <c r="E91" s="101" t="s">
-        <v>136</v>
+      <c r="C91" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D91" s="82"/>
+      <c r="E91" s="87" t="s">
+        <v>128</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>37</v>
@@ -5856,10 +5934,10 @@
       <c r="U91" s="20"/>
     </row>
     <row r="92" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="104"/>
-      <c r="C92" s="92"/>
-      <c r="D92" s="93"/>
-      <c r="E92" s="102"/>
+      <c r="B92" s="80"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="80"/>
       <c r="F92" s="4" t="s">
         <v>36</v>
       </c>
@@ -5880,15 +5958,15 @@
       <c r="U92" s="20"/>
     </row>
     <row r="93" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="103">
+      <c r="B93" s="79">
         <v>43</v>
       </c>
-      <c r="C93" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="D93" s="98"/>
-      <c r="E93" s="101" t="s">
-        <v>139</v>
+      <c r="C93" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="D93" s="89"/>
+      <c r="E93" s="87" t="s">
+        <v>130</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>37</v>
@@ -5910,10 +5988,10 @@
       <c r="U93" s="20"/>
     </row>
     <row r="94" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="104"/>
-      <c r="C94" s="99"/>
-      <c r="D94" s="100"/>
-      <c r="E94" s="102"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="90"/>
+      <c r="D94" s="91"/>
+      <c r="E94" s="80"/>
       <c r="F94" s="4" t="s">
         <v>36</v>
       </c>
@@ -5934,15 +6012,15 @@
       <c r="U94" s="20"/>
     </row>
     <row r="95" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="103">
+      <c r="B95" s="79">
         <v>44</v>
       </c>
-      <c r="C95" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="D95" s="98"/>
-      <c r="E95" s="110" t="s">
-        <v>138</v>
+      <c r="C95" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" s="89"/>
+      <c r="E95" s="87" t="s">
+        <v>160</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>37</v>
@@ -5964,10 +6042,10 @@
       <c r="U95" s="20"/>
     </row>
     <row r="96" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="104"/>
-      <c r="C96" s="99"/>
-      <c r="D96" s="100"/>
-      <c r="E96" s="102"/>
+      <c r="B96" s="80"/>
+      <c r="C96" s="90"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="80"/>
       <c r="F96" s="4" t="s">
         <v>36</v>
       </c>
@@ -5979,8 +6057,8 @@
       <c r="L96" s="20"/>
       <c r="M96" s="20"/>
       <c r="N96" s="20"/>
-      <c r="O96" s="20"/>
-      <c r="P96" s="20"/>
+      <c r="O96" s="45"/>
+      <c r="P96" s="45"/>
       <c r="Q96" s="20"/>
       <c r="R96" s="20"/>
       <c r="S96" s="20"/>
@@ -5988,15 +6066,15 @@
       <c r="U96" s="20"/>
     </row>
     <row r="97" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="103">
+      <c r="B97" s="79">
         <v>45</v>
       </c>
-      <c r="C97" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="D97" s="98"/>
-      <c r="E97" s="101" t="s">
-        <v>94</v>
+      <c r="C97" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="D97" s="89"/>
+      <c r="E97" s="87" t="s">
+        <v>88</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>37</v>
@@ -6018,10 +6096,10 @@
       <c r="U97" s="20"/>
     </row>
     <row r="98" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="104"/>
-      <c r="C98" s="99"/>
-      <c r="D98" s="100"/>
-      <c r="E98" s="102"/>
+      <c r="B98" s="80"/>
+      <c r="C98" s="90"/>
+      <c r="D98" s="91"/>
+      <c r="E98" s="80"/>
       <c r="F98" s="4" t="s">
         <v>36</v>
       </c>
@@ -6042,15 +6120,15 @@
       <c r="U98" s="20"/>
     </row>
     <row r="99" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="103">
+      <c r="B99" s="79">
         <v>46</v>
       </c>
-      <c r="C99" s="97" t="s">
-        <v>119</v>
-      </c>
-      <c r="D99" s="98"/>
-      <c r="E99" s="101" t="s">
-        <v>114</v>
+      <c r="C99" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" s="89"/>
+      <c r="E99" s="87" t="s">
+        <v>106</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>37</v>
@@ -6072,10 +6150,10 @@
       <c r="U99" s="20"/>
     </row>
     <row r="100" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="104"/>
-      <c r="C100" s="99"/>
-      <c r="D100" s="100"/>
-      <c r="E100" s="102"/>
+      <c r="B100" s="80"/>
+      <c r="C100" s="90"/>
+      <c r="D100" s="91"/>
+      <c r="E100" s="80"/>
       <c r="F100" s="4" t="s">
         <v>36</v>
       </c>
@@ -6096,15 +6174,15 @@
       <c r="U100" s="20"/>
     </row>
     <row r="101" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="103">
+      <c r="B101" s="79">
         <v>47</v>
       </c>
-      <c r="C101" s="90" t="s">
-        <v>144</v>
-      </c>
-      <c r="D101" s="91"/>
-      <c r="E101" s="101" t="s">
-        <v>150</v>
+      <c r="C101" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="D101" s="82"/>
+      <c r="E101" s="87" t="s">
+        <v>141</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>37</v>
@@ -6126,10 +6204,10 @@
       <c r="U101" s="20"/>
     </row>
     <row r="102" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="104"/>
-      <c r="C102" s="92"/>
-      <c r="D102" s="93"/>
-      <c r="E102" s="102"/>
+      <c r="B102" s="80"/>
+      <c r="C102" s="83"/>
+      <c r="D102" s="84"/>
+      <c r="E102" s="80"/>
       <c r="F102" s="4" t="s">
         <v>36</v>
       </c>
@@ -6150,15 +6228,15 @@
       <c r="U102" s="20"/>
     </row>
     <row r="103" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="103">
+      <c r="B103" s="79">
         <v>48</v>
       </c>
-      <c r="C103" s="90" t="s">
-        <v>145</v>
-      </c>
-      <c r="D103" s="91"/>
-      <c r="E103" s="101" t="s">
-        <v>153</v>
+      <c r="C103" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="D103" s="82"/>
+      <c r="E103" s="87" t="s">
+        <v>144</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>37</v>
@@ -6180,10 +6258,10 @@
       <c r="U103" s="20"/>
     </row>
     <row r="104" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="104"/>
-      <c r="C104" s="92"/>
-      <c r="D104" s="93"/>
-      <c r="E104" s="102"/>
+      <c r="B104" s="80"/>
+      <c r="C104" s="83"/>
+      <c r="D104" s="84"/>
+      <c r="E104" s="80"/>
       <c r="F104" s="4" t="s">
         <v>36</v>
       </c>
@@ -6204,15 +6282,15 @@
       <c r="U104" s="20"/>
     </row>
     <row r="105" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="103">
+      <c r="B105" s="79">
         <v>49</v>
       </c>
-      <c r="C105" s="90" t="s">
-        <v>146</v>
-      </c>
-      <c r="D105" s="91"/>
-      <c r="E105" s="101" t="s">
-        <v>149</v>
+      <c r="C105" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="D105" s="82"/>
+      <c r="E105" s="87" t="s">
+        <v>140</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>37</v>
@@ -6234,10 +6312,10 @@
       <c r="U105" s="20"/>
     </row>
     <row r="106" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="104"/>
-      <c r="C106" s="92"/>
-      <c r="D106" s="93"/>
-      <c r="E106" s="102"/>
+      <c r="B106" s="80"/>
+      <c r="C106" s="83"/>
+      <c r="D106" s="84"/>
+      <c r="E106" s="80"/>
       <c r="F106" s="4" t="s">
         <v>36</v>
       </c>
@@ -6258,15 +6336,15 @@
       <c r="U106" s="20"/>
     </row>
     <row r="107" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="103">
+      <c r="B107" s="79">
         <v>50</v>
       </c>
-      <c r="C107" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="D107" s="91"/>
-      <c r="E107" s="101" t="s">
-        <v>154</v>
+      <c r="C107" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="D107" s="82"/>
+      <c r="E107" s="87" t="s">
+        <v>145</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>37</v>
@@ -6288,10 +6366,10 @@
       <c r="U107" s="20"/>
     </row>
     <row r="108" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="104"/>
-      <c r="C108" s="92"/>
-      <c r="D108" s="93"/>
-      <c r="E108" s="102"/>
+      <c r="B108" s="80"/>
+      <c r="C108" s="83"/>
+      <c r="D108" s="84"/>
+      <c r="E108" s="80"/>
       <c r="F108" s="4" t="s">
         <v>36</v>
       </c>
@@ -6312,15 +6390,15 @@
       <c r="U108" s="20"/>
     </row>
     <row r="109" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="103">
+      <c r="B109" s="79">
         <v>51</v>
       </c>
-      <c r="C109" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="D109" s="91"/>
-      <c r="E109" s="101" t="s">
-        <v>124</v>
+      <c r="C109" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="D109" s="82"/>
+      <c r="E109" s="87" t="s">
+        <v>116</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>37</v>
@@ -6342,10 +6420,10 @@
       <c r="U109" s="20"/>
     </row>
     <row r="110" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="104"/>
-      <c r="C110" s="92"/>
-      <c r="D110" s="93"/>
-      <c r="E110" s="102"/>
+      <c r="B110" s="80"/>
+      <c r="C110" s="83"/>
+      <c r="D110" s="84"/>
+      <c r="E110" s="80"/>
       <c r="F110" s="4" t="s">
         <v>36</v>
       </c>
@@ -6365,15 +6443,15 @@
       <c r="U110" s="20"/>
     </row>
     <row r="111" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="103">
+      <c r="B111" s="79">
         <v>52</v>
       </c>
-      <c r="C111" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="D111" s="91"/>
-      <c r="E111" s="101" t="s">
-        <v>152</v>
+      <c r="C111" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="D111" s="82"/>
+      <c r="E111" s="87" t="s">
+        <v>143</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>37</v>
@@ -6395,10 +6473,10 @@
       <c r="U111" s="20"/>
     </row>
     <row r="112" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="104"/>
-      <c r="C112" s="92"/>
-      <c r="D112" s="93"/>
-      <c r="E112" s="102"/>
+      <c r="B112" s="80"/>
+      <c r="C112" s="83"/>
+      <c r="D112" s="84"/>
+      <c r="E112" s="80"/>
       <c r="F112" s="4" t="s">
         <v>36</v>
       </c>
@@ -6419,15 +6497,15 @@
       <c r="U112" s="20"/>
     </row>
     <row r="113" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="103">
+      <c r="B113" s="79">
         <v>53</v>
       </c>
-      <c r="C113" s="90" t="s">
-        <v>155</v>
-      </c>
-      <c r="D113" s="91"/>
-      <c r="E113" s="101" t="s">
-        <v>137</v>
+      <c r="C113" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="D113" s="82"/>
+      <c r="E113" s="87" t="s">
+        <v>129</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>37</v>
@@ -6449,10 +6527,10 @@
       <c r="U113" s="20"/>
     </row>
     <row r="114" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="104"/>
-      <c r="C114" s="92"/>
-      <c r="D114" s="93"/>
-      <c r="E114" s="102"/>
+      <c r="B114" s="80"/>
+      <c r="C114" s="83"/>
+      <c r="D114" s="84"/>
+      <c r="E114" s="80"/>
       <c r="F114" s="4" t="s">
         <v>36</v>
       </c>
@@ -6473,15 +6551,15 @@
       <c r="U114" s="20"/>
     </row>
     <row r="115" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="103">
+      <c r="B115" s="79">
         <v>54</v>
       </c>
-      <c r="C115" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="D115" s="91"/>
-      <c r="E115" s="103" t="s">
-        <v>72</v>
+      <c r="C115" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" s="82"/>
+      <c r="E115" s="85" t="s">
+        <v>69</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>37</v>
@@ -6503,148 +6581,55 @@
       <c r="U115" s="44"/>
     </row>
     <row r="116" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="104"/>
-      <c r="C116" s="92"/>
-      <c r="D116" s="93"/>
-      <c r="E116" s="104"/>
+      <c r="B116" s="80"/>
+      <c r="C116" s="83"/>
+      <c r="D116" s="84"/>
+      <c r="E116" s="86"/>
       <c r="F116" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G116" s="20"/>
       <c r="H116" s="20"/>
       <c r="I116" s="20"/>
-      <c r="J116" s="20"/>
-      <c r="K116" s="20"/>
-      <c r="L116" s="20"/>
-      <c r="M116" s="20"/>
-      <c r="N116" s="20"/>
-      <c r="O116" s="20"/>
-      <c r="P116" s="20"/>
-      <c r="Q116" s="20"/>
-      <c r="R116" s="20"/>
-      <c r="S116" s="20"/>
-      <c r="T116" s="20"/>
-      <c r="U116" s="20"/>
+      <c r="J116" s="45"/>
+      <c r="K116" s="45"/>
+      <c r="L116" s="45"/>
+      <c r="M116" s="45"/>
+      <c r="N116" s="45"/>
+      <c r="O116" s="45"/>
+      <c r="P116" s="45"/>
+      <c r="Q116" s="45"/>
+      <c r="R116" s="45"/>
+      <c r="S116" s="45"/>
+      <c r="T116" s="45"/>
+      <c r="U116" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="165">
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:U4"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="G9:U9"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C13:D14"/>
     <mergeCell ref="E13:E14"/>
@@ -6669,72 +6654,180 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:U4"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="G9:U9"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E15" r:id="rId1"/>
     <hyperlink ref="E25" r:id="rId2"/>
     <hyperlink ref="E21" r:id="rId3"/>
     <hyperlink ref="E27" r:id="rId4"/>
-    <hyperlink ref="E33" r:id="rId5"/>
-    <hyperlink ref="E37" r:id="rId6"/>
-    <hyperlink ref="E39" r:id="rId7"/>
-    <hyperlink ref="E41" r:id="rId8"/>
-    <hyperlink ref="E49" r:id="rId9"/>
-    <hyperlink ref="E45" r:id="rId10"/>
-    <hyperlink ref="E43" r:id="rId11"/>
-    <hyperlink ref="E47" r:id="rId12"/>
-    <hyperlink ref="E51" r:id="rId13"/>
-    <hyperlink ref="E53" r:id="rId14"/>
-    <hyperlink ref="E91" r:id="rId15"/>
-    <hyperlink ref="E99" r:id="rId16"/>
-    <hyperlink ref="E93" r:id="rId17"/>
-    <hyperlink ref="E97" r:id="rId18"/>
-    <hyperlink ref="E87" r:id="rId19"/>
-    <hyperlink ref="E88" r:id="rId20"/>
-    <hyperlink ref="E85" r:id="rId21"/>
-    <hyperlink ref="E105" r:id="rId22"/>
-    <hyperlink ref="E103" r:id="rId23"/>
-    <hyperlink ref="E111" r:id="rId24"/>
-    <hyperlink ref="E101" r:id="rId25"/>
-    <hyperlink ref="E107" r:id="rId26"/>
-    <hyperlink ref="E109" r:id="rId27"/>
-    <hyperlink ref="E113" r:id="rId28"/>
-    <hyperlink ref="E65" r:id="rId29"/>
-    <hyperlink ref="E11" r:id="rId30"/>
-    <hyperlink ref="E13" r:id="rId31"/>
-    <hyperlink ref="E19" r:id="rId32"/>
-    <hyperlink ref="E67" r:id="rId33"/>
-    <hyperlink ref="E73" r:id="rId34"/>
-    <hyperlink ref="E55" r:id="rId35"/>
-    <hyperlink ref="E81" r:id="rId36"/>
+    <hyperlink ref="E37" r:id="rId5"/>
+    <hyperlink ref="E39" r:id="rId6"/>
+    <hyperlink ref="E41" r:id="rId7"/>
+    <hyperlink ref="E49" r:id="rId8"/>
+    <hyperlink ref="E45" r:id="rId9"/>
+    <hyperlink ref="E43" r:id="rId10"/>
+    <hyperlink ref="E47" r:id="rId11"/>
+    <hyperlink ref="E51" r:id="rId12"/>
+    <hyperlink ref="E53" r:id="rId13"/>
+    <hyperlink ref="E91" r:id="rId14"/>
+    <hyperlink ref="E99" r:id="rId15"/>
+    <hyperlink ref="E93" r:id="rId16"/>
+    <hyperlink ref="E97" r:id="rId17"/>
+    <hyperlink ref="E87" r:id="rId18"/>
+    <hyperlink ref="E88" r:id="rId19"/>
+    <hyperlink ref="E85" r:id="rId20"/>
+    <hyperlink ref="E105" r:id="rId21"/>
+    <hyperlink ref="E103" r:id="rId22"/>
+    <hyperlink ref="E111" r:id="rId23"/>
+    <hyperlink ref="E101" r:id="rId24"/>
+    <hyperlink ref="E107" r:id="rId25"/>
+    <hyperlink ref="E109" r:id="rId26"/>
+    <hyperlink ref="E113" r:id="rId27"/>
+    <hyperlink ref="E65" r:id="rId28"/>
+    <hyperlink ref="E11" r:id="rId29"/>
+    <hyperlink ref="E13" r:id="rId30"/>
+    <hyperlink ref="E19" r:id="rId31"/>
+    <hyperlink ref="E67" r:id="rId32"/>
+    <hyperlink ref="E73" r:id="rId33"/>
+    <hyperlink ref="E55" r:id="rId34"/>
+    <hyperlink ref="E81" r:id="rId35"/>
+    <hyperlink ref="E23" r:id="rId36"/>
+    <hyperlink ref="E61" r:id="rId37"/>
+    <hyperlink ref="E75" r:id="rId38"/>
+    <hyperlink ref="E71" r:id="rId39"/>
+    <hyperlink ref="E79" r:id="rId40"/>
+    <hyperlink ref="E77" r:id="rId41"/>
+    <hyperlink ref="E69" r:id="rId42"/>
+    <hyperlink ref="E95" r:id="rId43"/>
+    <hyperlink ref="E35" r:id="rId44"/>
+    <hyperlink ref="E83" r:id="rId45"/>
+    <hyperlink ref="E63" r:id="rId46"/>
+    <hyperlink ref="E33" r:id="rId47"/>
+    <hyperlink ref="E57" r:id="rId48"/>
+    <hyperlink ref="E29" r:id="rId49"/>
+    <hyperlink ref="E31" r:id="rId50"/>
+    <hyperlink ref="E59" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="55" orientation="portrait" r:id="rId37"/>
-  <drawing r:id="rId38"/>
+  <pageSetup scale="55" orientation="portrait" r:id="rId52"/>
+  <drawing r:id="rId53"/>
 </worksheet>
 </file>
 
